--- a/data_excel/接口测试用例_ (4).xlsx
+++ b/data_excel/接口测试用例_ (4).xlsx
@@ -610,11 +610,11 @@
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-24 12:28:46', 'ftime': '2019-09-24 12:28:46', 'context': '货物已由本人签收，感谢您选择京东物流！', 'location': None}, {'time': '2019-09-24 08:32:32', 'ftime': '2019-09-24 08:32:32', 'context': '货物已分配，等待配送', 'location': None}, {'time': '2019-09-24 08:16:48', 'ftime': '2019-09-24 08:16:48', 'context': '配送员开始配送，请您准备收货，配送员，刘华好，手机号，15961192400', 'location': None}, {'time': '2019-09-24 05:20:47', 'ftime': '2019-09-24 05:20:47', 'context': '货物已完成分拣，离开【无锡分拨中心】', 'location': None}, {'time': '2019-09-24 03:01:49', 'ftime': '2019-09-24 03:01:49', 'context': '货物已到达【无锡分拨中心】', 'location': None}, {'time': '2019-09-23 17:44:37', 'ftime': '2019-09-23 17:44:37', 'context': '货物已完成分拣，离开【杭州富阳外单分拣中心】', 'location': None}, {'time': '2019-09-23 00:38:44', 'ftime': '2019-09-23 00:38:44', 'context': '货物已完成分拣，离开【揭阳分拨中心】', 'location': None}, {'time': '2019-09-22 23:56:32', 'ftime': '2019-09-22 23:56:32', 'context': '货物已到达【揭阳分拨中心】', 'location': None}, {'time': '2019-09-22 17:22:58', 'ftime': '2019-09-22 17:22:58', 'context': '货物已交付京东物流', 'location': None}, {'time': '2019-09-22 17:22:58', 'ftime': '2019-09-22 17:22:58', 'context': '配送员翁涛已经揽收完成', 'location': None}, {'time': '2019-09-21 16:00:37', 'ftime': '2019-09-21 16:00:37', 'context': '揽收任务已分配给姚燕辉,配送员电话18029501006', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-10 10:07:10', 'context': '查无结果', 'ftime': '2019-09-10 10:07:10'}]}</t>
         </is>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0.06916</v>
+        <v>0.063425</v>
       </c>
       <c r="J2" s="3" t="n">
         <v>200</v>
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0.012065</v>
+        <v>0.008619</v>
       </c>
       <c r="J3" s="3" t="n">
         <v>200</v>
@@ -725,11 +725,11 @@
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-29 09:42:53', 'context': '查无结果', 'ftime': '2019-09-29 09:42:53'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'C00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 05:01:15', 'ftime': '2019-09-29 05:01:15', 'context': '湖北武昌转运中心-已发往-湖北武汉关东公司', 'location': None}, {'time': '2019-09-29 04:44:57', 'ftime': '2019-09-29 04:44:57', 'context': '已到达-湖北武昌转运中心', 'location': None}, {'time': '2019-09-28 04:33:03', 'ftime': '2019-09-28 04:33:03', 'context': '广东广州转运中心-已装袋发往-湖北武昌转运中心', 'location': None}, {'time': '2019-09-28 04:33:03', 'ftime': '2019-09-28 04:33:03', 'context': '广东广州转运中心-已进行装车扫描', 'location': None}, {'time': '2019-09-28 04:18:34', 'ftime': '2019-09-28 04:18:34', 'context': '已到达-广东广州转运中心', 'location': None}, {'time': '2019-09-28 00:47:23', 'ftime': '2019-09-28 00:47:23', 'context': '广东花都狮岭-已发往-广东广州转运中心', 'location': None}, {'time': '2019-09-28 00:47:23', 'ftime': '2019-09-28 00:47:23', 'context': '广东花都狮岭-已进行装袋扫描', 'location': None}, {'time': '2019-09-28 00:20:56', 'ftime': '2019-09-28 00:20:56', 'context': '广东花都狮岭-广州花都狮岭(16668888888)-已收件', 'location': None}]}</t>
         </is>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0.06707200000000001</v>
+        <v>0.074459</v>
       </c>
       <c r="J4" s="3" t="n">
         <v>200</v>
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="I5" s="3" t="n">
-        <v>0.010548</v>
+        <v>0.011674</v>
       </c>
       <c r="J5" s="3" t="n">
         <v>200</v>
@@ -831,11 +831,11 @@
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 05:40:50', 'ftime': '2019-09-29 05:40:50', 'context': '离开【聊城市分公司邮件处理中心】,下一站【山东省阳谷县分公司邮件处理中心】', 'location': ''}, {'time': '2019-09-28 21:01:34', 'ftime': '2019-09-28 21:01:34', 'context': '到达【聊城市分公司邮件处理中心】', 'location': ''}, {'time': '2019-09-28 18:57:08', 'ftime': '2019-09-28 18:57:08', 'context': '离开【济南中心】,下一站【聊城市分公司邮件处理中心】（经转）', 'location': ''}, {'time': '2019-09-28 15:33:19', 'ftime': '2019-09-28 15:33:19', 'context': '到达【济南中心】（经转）', 'location': ''}, {'time': '2019-09-28 01:42:47', 'ftime': '2019-09-28 01:42:47', 'context': '离开【西安中心】,下一站【济南中心】（经转）', 'location': ''}, {'time': '2019-09-27 22:40:57', 'ftime': '2019-09-27 22:40:57', 'context': '到达【西安中心】（经转）', 'location': ''}, {'time': '2019-09-27 18:47:10', 'ftime': '2019-09-27 18:47:10', 'context': '离开【宝鸡市眉县寄递事业部大宗包快营业部】,下一站【西安中心】', 'location': ''}, {'time': '2019-09-27 14:53:20', 'ftime': '2019-09-27 14:53:20', 'context': '【宝鸡市眉县寄递事业部大宗包快营业部】已收件,揽投员:003,电话:18000000000', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-28 15:31:19', 'ftime': '2019-09-28 15:31:19', 'context': '[上海金山区廊下钱圩公司]快件已被 松隐大街3（前台） 代签收如有问题请联系陆建国【13818633227】。', 'location': '上海金山区廊下钱圩公司'}, {'time': '2019-09-28 13:54:08', 'ftime': '2019-09-28 13:54:08', 'context': '[上海金山区廊下钱圩公司]进行派件扫描；派送业务员：陆建国；联系电话：13818633227', 'location': '上海金山区廊下钱圩公司'}, {'time': '2019-09-28 11:05:19', 'ftime': '2019-09-28 11:05:19', 'context': '[上海分拨中心]进行装车扫描，发往：上海金山分拨中心', 'location': '上海分拨中心'}, {'time': '2019-09-28 11:01:58', 'ftime': '2019-09-28 11:01:58', 'context': '[上海分拨中心]在分拨中心进行卸车扫描', 'location': '上海分拨中心'}, {'time': '2019-09-26 22:26:40', 'ftime': '2019-09-26 22:26:40', 'context': '[吉林长春分拨中心]进行装车扫描，发往：上海分拨中心', 'location': '吉林长春分拨中心'}, {'time': '2019-09-26 22:24:08', 'ftime': '2019-09-26 22:24:08', 'context': '[吉林长春分拨中心]在分拨中心进行称重扫描', 'location': '吉林长春分拨中心'}, {'time': '2019-09-26 06:44:54', 'ftime': '2019-09-26 06:44:54', 'context': '[吉林靖宇县公司逸轩物流服务部]进行发出扫描，发往：吉林长春分拨中心', 'location': '吉林靖宇县公司逸轩物流服务部'}, {'time': '2019-09-26 06:40:24', 'ftime': '2019-09-26 06:40:24', 'context': '[吉林靖宇县公司逸轩物流服务部]进行揽件扫描', 'location': '吉林靖宇县公司逸轩物流服务部'}]}</t>
         </is>
       </c>
       <c r="I6" s="3" t="n">
-        <v>0.073783</v>
+        <v>0.068622</v>
       </c>
       <c r="J6" s="3" t="n">
         <v>200</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="I7" s="3" t="n">
-        <v>0.010526</v>
+        <v>0.009527000000000001</v>
       </c>
       <c r="J7" s="3" t="n">
         <v>200</v>
@@ -937,11 +937,11 @@
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'C00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 19:33:31', 'ftime': '2019-09-28 19:33:31', 'context': '【2019-09-28 19:33:31】快件在【黄石分拨中心】正发往【黄冈英山】', 'location': None}, {'time': '2019-09-28 15:57:00', 'ftime': '2019-09-28 15:57:00', 'context': '【2019-09-28 15:57:00】快件已到达【黄石分拨中心】', 'location': None}, {'time': '2019-09-28 09:03:15', 'ftime': '2019-09-28 09:03:15', 'context': '【2019-09-28 09:03:15】快件在【武汉分拨中心】正发往【黄石分拨中心】', 'location': None}, {'time': '2019-09-28 08:06:43', 'ftime': '2019-09-28 08:06:43', 'context': '【2019-09-28 08:06:43】快件已到达【武汉分拨中心】', 'location': None}, {'time': '2019-09-26 22:16:29', 'ftime': '2019-09-26 22:16:29', 'context': '【2019-09-26 22:16:29】快件在【重庆分拨中心】正发往【武汉分拨中心】', 'location': None}, {'time': '2019-09-26 20:20:33', 'ftime': '2019-09-26 20:20:33', 'context': '【2019-09-26 20:20:33】快件已到达【重庆分拨中心】', 'location': None}, {'time': '2019-09-26 17:57:33', 'ftime': '2019-09-26 17:57:33', 'context': '【2019-09-26 17:57:33】快件在【重庆渣滓洞】正发往【重庆分拨中心】', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 21:53:35', 'ftime': '2019-09-28 21:53:35', 'context': '【芜湖转运中心】 已发出 下一站 【安徽省宣城市泾县】', 'location': ''}, {'time': '2019-09-28 21:36:42', 'ftime': '2019-09-28 21:36:42', 'context': '【芜湖转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-28 06:42:54', 'ftime': '2019-09-28 06:42:54', 'context': '【合肥转运中心】 已发出 下一站 【芜湖转运中心】', 'location': ''}, {'time': '2019-09-28 06:38:21', 'ftime': '2019-09-28 06:38:21', 'context': '【合肥转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-27 23:56:36', 'ftime': '2019-09-27 23:56:36', 'context': '【浙江省湖州市】 已发出 下一站 【合肥转运中心】', 'location': ''}, {'time': '2019-09-27 23:31:00', 'ftime': '2019-09-27 23:31:00', 'context': '【浙江省湖州市公司】 已打包', 'location': ''}, {'time': '2019-09-27 23:30:10', 'ftime': '2019-09-27 23:30:10', 'context': '【浙江省湖州市公司】 已收件 取件人: 王烨 (13305723720)', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I8" s="3" t="n">
-        <v>0.074182</v>
+        <v>0.073578</v>
       </c>
       <c r="J8" s="3" t="n">
         <v>200</v>
@@ -993,7 +993,7 @@
         </is>
       </c>
       <c r="I9" s="3" t="n">
-        <v>0.010317</v>
+        <v>0.00959</v>
       </c>
       <c r="J9" s="3" t="n">
         <v>200</v>
@@ -1043,11 +1043,11 @@
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-29 07:44:00', 'ftime': '2019-09-29 07:44:00', 'context': '[秦皇岛市]快件交给白玉磊，正在派送途中（联系电话：18532058072）', 'location': '秦皇岛市'}, {'time': '2019-09-29 07:27:00', 'ftime': '2019-09-29 07:27:00', 'context': '[秦皇岛市]正在派送途中,请您准备签收(派件人:白玉磊,电话:18532058072)', 'location': '秦皇岛市'}, {'time': '2019-09-29 07:24:00', 'ftime': '2019-09-29 07:24:00', 'context': '[秦皇岛市]快件到达 【秦皇岛抚宁深河重货集配站】', 'location': '秦皇岛市'}, {'time': '2019-09-29 07:05:00', 'ftime': '2019-09-29 07:05:00', 'context': '[秦皇岛市]快件在【秦皇岛抚宁集散点】已装车,准备发往 【秦皇岛抚宁深河重货集配站】', 'location': '秦皇岛市'}, {'time': '2019-09-29 04:53:00', 'ftime': '2019-09-29 04:53:00', 'context': '[秦皇岛市]快件到达 【秦皇岛抚宁集散点】', 'location': '秦皇岛市'}, {'time': '2019-09-29 00:46:00', 'ftime': '2019-09-29 00:46:00', 'context': '[北京市]快件已发车', 'location': '北京市'}, {'time': '2019-09-29 00:05:00', 'ftime': '2019-09-29 00:05:00', 'context': '[北京市]快件在【北京马驹桥集散中心】已装车,准备发往 【秦皇岛抚宁集散点】', 'location': '北京市'}, {'time': '2019-09-28 22:18:00', 'ftime': '2019-09-28 22:18:00', 'context': '[北京市]快件到达 【北京马驹桥集散中心】', 'location': '北京市'}, {'time': '2019-09-28 21:38:00', 'ftime': '2019-09-28 21:38:00', 'context': '[北京市]快件已发车', 'location': '北京市'}, {'time': '2019-09-28 21:04:00', 'ftime': '2019-09-28 21:04:00', 'context': '[北京市]快件在【北京丰台建欣苑营业点】已装车,准备发往 【北京马驹桥集散中心】', 'location': '北京市'}, {'time': '2019-09-28 20:05:00', 'ftime': '2019-09-28 20:05:00', 'context': '[北京市]顺丰速运 已收取快件', 'location': '北京市'}, {'time': '2019-09-28 18:22:00', 'ftime': '2019-09-28 18:22:00', 'context': '[北京市]顺丰速运 已收取快件', 'location': '北京市'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-26 10:07:10', 'context': '查无结果', 'ftime': '2019-09-26 10:07:10'}]}</t>
         </is>
       </c>
       <c r="I10" s="3" t="n">
-        <v>0.087822</v>
+        <v>0.063232</v>
       </c>
       <c r="J10" s="3" t="n">
         <v>200</v>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I11" s="3" t="n">
-        <v>0.010495</v>
+        <v>0.014518</v>
       </c>
       <c r="J11" s="3" t="n">
         <v>200</v>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-01 09:42:54', 'context': '查无结果', 'ftime': '2019-09-01 09:42:54'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-19 10:07:11', 'context': '查无结果', 'ftime': '2019-09-19 10:07:11'}]}</t>
         </is>
       </c>
       <c r="I12" s="3" t="n">
-        <v>0.06442299999999999</v>
+        <v>0.072215</v>
       </c>
       <c r="J12" s="3" t="n">
         <v>200</v>
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="I13" s="3" t="n">
-        <v>0.008935</v>
+        <v>0.009523999999999999</v>
       </c>
       <c r="J13" s="3" t="n">
         <v>200</v>
@@ -1282,11 +1282,11 @@
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-07-12 12:45:26', 'ftime': '2018-07-12 12:45:26', 'context': ' 取件单已经终止', 'location': None}, {'time': '2018-07-12 10:08:01', 'ftime': '2018-07-12 10:08:01', 'context': ' 上门取件失败，准备再次取件，原因：客户要求改日服务，备注：再投无备注下次再投时间:2018-07-13 10:00:00', 'location': None}, {'time': '2018-07-12 09:40:53', 'ftime': '2018-07-12 09:40:53', 'context': ' 配送员：王敬已出发，手机号：15523869955或40280285，请您准备好全套商品、发票及包装，感谢您的配合！', 'location': None}, {'time': '2018-07-12 08:22:13', 'ftime': '2018-07-12 08:22:13', 'context': ' 取件任务分配给重庆长寿站', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-21 10:07:11', 'context': '查无结果', 'ftime': '2019-09-21 10:07:11'}]}</t>
         </is>
       </c>
       <c r="I14" s="3" t="n">
-        <v>0.07284499999999999</v>
+        <v>0.066411</v>
       </c>
       <c r="J14" s="3" t="n">
         <v>200</v>
@@ -1338,7 +1338,7 @@
         </is>
       </c>
       <c r="I15" s="3" t="n">
-        <v>0.010475</v>
+        <v>0.01132</v>
       </c>
       <c r="J15" s="3" t="n">
         <v>200</v>
@@ -1388,11 +1388,11 @@
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 06:48:40', 'ftime': '2019-09-29 06:48:40', 'context': '浙江温州鹿城公司-已发往-浙江温州双屿营业部', 'location': ''}, {'time': '2019-09-29 06:47:31', 'ftime': '2019-09-29 06:47:31', 'context': '已到达-浙江温州鹿城公司', 'location': ''}, {'time': '2019-09-29 02:10:21', 'ftime': '2019-09-29 02:10:21', 'context': '浙江温州转运中心-已装袋发往-浙江温州鹿城公司', 'location': ''}, {'time': '2019-09-29 01:55:07', 'ftime': '2019-09-29 01:55:07', 'context': '已到达-浙江温州转运中心', 'location': ''}, {'time': '2019-09-28 18:41:03', 'ftime': '2019-09-28 18:41:03', 'context': '浙江义乌转运中心-已装袋发往-浙江温州转运中心', 'location': ''}, {'time': '2019-09-28 18:41:03', 'ftime': '2019-09-28 18:41:03', 'context': '浙江义乌转运中心-已进行装车扫描', 'location': ''}, {'time': '2019-09-28 18:38:11', 'ftime': '2019-09-28 18:38:11', 'context': '已到达-浙江义乌转运中心', 'location': ''}, {'time': '2019-09-28 18:38:11', 'ftime': '2019-09-28 18:38:11', 'context': '快件已在【浙江义乌转运中心】进行卸车，扫描员【左成强】', 'location': ''}, {'time': '2019-09-28 04:55:01', 'ftime': '2019-09-28 04:55:01', 'context': '湖北武汉转运中心-已装袋发往-浙江义乌转运中心', 'location': ''}, {'time': '2019-09-28 04:55:01', 'ftime': '2019-09-28 04:55:01', 'context': '湖北武汉转运中心-已进行装车扫描', 'location': ''}, {'time': '2019-09-27 23:58:00', 'ftime': '2019-09-27 23:58:00', 'context': '湖北武汉转运中心-已发往-浙江温州转运中心', 'location': ''}, {'time': '2019-09-27 23:58:00', 'ftime': '2019-09-27 23:58:00', 'context': '湖北武汉转运中心-已进行装袋扫描', 'location': ''}, {'time': '2019-09-27 23:56:00', 'ftime': '2019-09-27 23:56:00', 'context': '已到达-湖北武汉转运中心', 'location': ''}, {'time': '2019-09-27 18:52:43', 'ftime': '2019-09-27 18:52:43', 'context': '湖北随州公司-已发往-湖北武汉转运中心', 'location': ''}, {'time': '2019-09-27 17:17:09', 'ftime': '2019-09-27 17:17:09', 'context': '湖北随州公司-黄继林(13872881656,13872881656)-已收件', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-16 10:07:11', 'context': '查无结果', 'ftime': '2019-09-16 10:07:11'}]}</t>
         </is>
       </c>
       <c r="I16" s="3" t="n">
-        <v>0.07427300000000001</v>
+        <v>0.065029</v>
       </c>
       <c r="J16" s="3" t="n">
         <v>200</v>
@@ -1444,7 +1444,7 @@
         </is>
       </c>
       <c r="I17" s="3" t="n">
-        <v>0.012113</v>
+        <v>0.009561999999999999</v>
       </c>
       <c r="J17" s="3" t="n">
         <v>200</v>
@@ -1503,11 +1503,11 @@
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-10-25 11:29:59', 'ftime': '2018-10-25 11:29:59', 'context': '订单已由门卫代收，感谢您在京东购物，欢迎您再次光临！', 'location': None}, {'time': '2018-10-25 10:10:23', 'ftime': '2018-10-25 10:10:23', 'context': '配送员开始配送，请您准备收货，配送员，朱翔，手机号，18861201009', 'location': None}, {'time': '2018-10-25 09:20:00', 'ftime': '2018-10-25 09:20:00', 'context': '货物已分配，等待配送', 'location': None}, {'time': '2018-10-25 01:55:11', 'ftime': '2018-10-25 01:55:11', 'context': '货物已完成分拣，离开【无锡分拨中心】', 'location': None}, {'time': '2018-10-25 01:54:45', 'ftime': '2018-10-25 01:54:45', 'context': '货物已到达【无锡分拨中心】', 'location': None}, {'time': '2018-10-24 20:32:48', 'ftime': '2018-10-24 20:32:48', 'context': '货物已完成分拣，离开【苏州太仓分拣中心】', 'location': None}, {'time': '2018-10-24 20:31:25', 'ftime': '2018-10-24 20:31:25', 'context': '货物已交付京东物流', 'location': None}, {'time': '2018-10-24 20:31:25', 'ftime': '2018-10-24 20:31:25', 'context': '货物已到达【苏州太仓分拣中心】', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-24 10:07:11', 'context': '查无结果', 'ftime': '2019-09-24 10:07:11'}]}</t>
         </is>
       </c>
       <c r="I18" s="3" t="n">
-        <v>0.06983399999999999</v>
+        <v>0.073099</v>
       </c>
       <c r="J18" s="3" t="n">
         <v>200</v>
@@ -1568,7 +1568,7 @@
         </is>
       </c>
       <c r="I19" s="3" t="n">
-        <v>0.009900000000000001</v>
+        <v>0.008404999999999999</v>
       </c>
       <c r="J19" s="3" t="n">
         <v>200</v>

--- a/data_excel/接口测试用例_ (4).xlsx
+++ b/data_excel/接口测试用例_ (4).xlsx
@@ -610,11 +610,11 @@
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-10 10:07:10', 'context': '查无结果', 'ftime': '2019-09-10 10:07:10'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 23:18:00', 'ftime': '2019-09-28 23:18:00', 'context': '[天津市]快件已发车', 'location': '天津市'}, {'time': '2019-09-28 21:09:00', 'ftime': '2019-09-28 21:09:00', 'context': '[天津市]快件在【华北陆运枢纽（天津）】已装车,准备发往 【太原小店集散中心】', 'location': '天津市'}, {'time': '2019-09-28 20:13:00', 'ftime': '2019-09-28 20:13:00', 'context': '[天津市]快件到达 【华北陆运枢纽（天津）】', 'location': '天津市'}, {'time': '2019-09-27 22:46:00', 'ftime': '2019-09-27 22:46:00', 'context': '[哈尔滨市]快件已发车', 'location': '哈尔滨市'}, {'time': '2019-09-27 22:31:00', 'ftime': '2019-09-27 22:31:00', 'context': '[哈尔滨市]快件在【哈尔滨龙运临时集散中心】已装车,准备发往 【华北陆运枢纽（天津）】', 'location': '哈尔滨市'}, {'time': '2019-09-27 19:41:00', 'ftime': '2019-09-27 19:41:00', 'context': '[哈尔滨市]快件到达 【哈尔滨龙运临时集散中心】', 'location': '哈尔滨市'}, {'time': '2019-09-27 16:55:00', 'ftime': '2019-09-27 16:55:00', 'context': '[哈尔滨市]快件已发车', 'location': '哈尔滨市'}, {'time': '2019-09-27 16:33:00', 'ftime': '2019-09-27 16:33:00', 'context': '[哈尔滨市]快件在【哈尔滨尚志市腾飞大街营业点】已装车,准备发往下一站', 'location': '哈尔滨市'}, {'time': '2019-09-27 16:17:00', 'ftime': '2019-09-27 16:17:00', 'context': '[哈尔滨市]顺丰速运 已收取快件', 'location': '哈尔滨市'}, {'time': '2019-09-27 16:09:00', 'ftime': '2019-09-27 16:09:00', 'context': '[哈尔滨市]顺丰速运 已收取快件', 'location': '哈尔滨市'}]}</t>
         </is>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0.063425</v>
+        <v>0.06879200000000001</v>
       </c>
       <c r="J2" s="3" t="n">
         <v>200</v>
@@ -671,11 +671,11 @@
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0.008619</v>
+        <v>0.008942</v>
       </c>
       <c r="J3" s="3" t="n">
         <v>200</v>
@@ -725,11 +725,11 @@
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'C00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 05:01:15', 'ftime': '2019-09-29 05:01:15', 'context': '湖北武昌转运中心-已发往-湖北武汉关东公司', 'location': None}, {'time': '2019-09-29 04:44:57', 'ftime': '2019-09-29 04:44:57', 'context': '已到达-湖北武昌转运中心', 'location': None}, {'time': '2019-09-28 04:33:03', 'ftime': '2019-09-28 04:33:03', 'context': '广东广州转运中心-已装袋发往-湖北武昌转运中心', 'location': None}, {'time': '2019-09-28 04:33:03', 'ftime': '2019-09-28 04:33:03', 'context': '广东广州转运中心-已进行装车扫描', 'location': None}, {'time': '2019-09-28 04:18:34', 'ftime': '2019-09-28 04:18:34', 'context': '已到达-广东广州转运中心', 'location': None}, {'time': '2019-09-28 00:47:23', 'ftime': '2019-09-28 00:47:23', 'context': '广东花都狮岭-已发往-广东广州转运中心', 'location': None}, {'time': '2019-09-28 00:47:23', 'ftime': '2019-09-28 00:47:23', 'context': '广东花都狮岭-已进行装袋扫描', 'location': None}, {'time': '2019-09-28 00:20:56', 'ftime': '2019-09-28 00:20:56', 'context': '广东花都狮岭-广州花都狮岭(16668888888)-已收件', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-02 10:22:13', 'context': '查无结果', 'ftime': '2019-09-02 10:22:13'}]}</t>
         </is>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0.074459</v>
+        <v>0.067539</v>
       </c>
       <c r="J4" s="3" t="n">
         <v>200</v>
@@ -777,11 +777,11 @@
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I5" s="3" t="n">
-        <v>0.011674</v>
+        <v>0.009738</v>
       </c>
       <c r="J5" s="3" t="n">
         <v>200</v>
@@ -831,11 +831,11 @@
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-28 15:31:19', 'ftime': '2019-09-28 15:31:19', 'context': '[上海金山区廊下钱圩公司]快件已被 松隐大街3（前台） 代签收如有问题请联系陆建国【13818633227】。', 'location': '上海金山区廊下钱圩公司'}, {'time': '2019-09-28 13:54:08', 'ftime': '2019-09-28 13:54:08', 'context': '[上海金山区廊下钱圩公司]进行派件扫描；派送业务员：陆建国；联系电话：13818633227', 'location': '上海金山区廊下钱圩公司'}, {'time': '2019-09-28 11:05:19', 'ftime': '2019-09-28 11:05:19', 'context': '[上海分拨中心]进行装车扫描，发往：上海金山分拨中心', 'location': '上海分拨中心'}, {'time': '2019-09-28 11:01:58', 'ftime': '2019-09-28 11:01:58', 'context': '[上海分拨中心]在分拨中心进行卸车扫描', 'location': '上海分拨中心'}, {'time': '2019-09-26 22:26:40', 'ftime': '2019-09-26 22:26:40', 'context': '[吉林长春分拨中心]进行装车扫描，发往：上海分拨中心', 'location': '吉林长春分拨中心'}, {'time': '2019-09-26 22:24:08', 'ftime': '2019-09-26 22:24:08', 'context': '[吉林长春分拨中心]在分拨中心进行称重扫描', 'location': '吉林长春分拨中心'}, {'time': '2019-09-26 06:44:54', 'ftime': '2019-09-26 06:44:54', 'context': '[吉林靖宇县公司逸轩物流服务部]进行发出扫描，发往：吉林长春分拨中心', 'location': '吉林靖宇县公司逸轩物流服务部'}, {'time': '2019-09-26 06:40:24', 'ftime': '2019-09-26 06:40:24', 'context': '[吉林靖宇县公司逸轩物流服务部]进行揽件扫描', 'location': '吉林靖宇县公司逸轩物流服务部'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 07:01:18', 'ftime': '2019-09-29 07:01:18', 'context': '运输中,货物由南平前往建瓯途中', 'location': ''}, {'time': '2019-09-28 18:19:38', 'ftime': '2019-09-28 18:19:38', 'context': '货物在[南平]完成装车,等待出发', 'location': ''}, {'time': '2019-09-27 16:39:58', 'ftime': '2019-09-27 16:39:58', 'context': '运输中,到达[南平]入库,待中转', 'location': ''}, {'time': '2019-09-27 16:34:35', 'ftime': '2019-09-27 16:34:35', 'context': '运输中,到达中转地[南平],车辆正在卸货', 'location': ''}, {'time': '2019-09-27 15:12:08', 'ftime': '2019-09-27 15:12:08', 'context': '运输中,到达中转地[南平],等待卸车', 'location': ''}, {'time': '2019-09-27 13:58:10', 'ftime': '2019-09-27 13:58:10', 'context': '运输中,货物由三明梅列前往南平途中', 'location': ''}, {'time': '2019-09-26 23:30:49', 'ftime': '2019-09-26 23:30:49', 'context': '运输中,货物由武汉前往南平途中', 'location': ''}, {'time': '2019-09-26 22:28:11', 'ftime': '2019-09-26 22:28:11', 'context': '货物在[武汉]完成装车,等待出发', 'location': ''}, {'time': '2019-09-26 14:56:13', 'ftime': '2019-09-26 14:56:13', 'context': '运输中,到达[武汉]入库,待中转', 'location': ''}, {'time': '2019-09-25 21:11:45', 'ftime': '2019-09-25 21:11:45', 'context': '运输中,到达中转地[武汉],车辆正在卸货', 'location': ''}, {'time': '2019-09-25 20:53:59', 'ftime': '2019-09-25 20:53:59', 'context': '运输中,到达中转地[武汉],等待卸车', 'location': ''}, {'time': '2019-09-25 20:26:12', 'ftime': '2019-09-25 20:26:12', 'context': '运输中,货物由武汉硚口前往武汉途中', 'location': ''}, {'time': '2019-09-25 20:01:08', 'ftime': '2019-09-25 20:01:08', 'context': '货物在[武汉硚口]完成装车,等待出发', 'location': ''}, {'time': '2019-09-25 19:14:19', 'ftime': '2019-09-25 19:14:19', 'context': '货物已承接,于[武汉硚口]公司入库', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I6" s="3" t="n">
-        <v>0.068622</v>
+        <v>0.06945999999999999</v>
       </c>
       <c r="J6" s="3" t="n">
         <v>200</v>
@@ -883,11 +883,11 @@
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I7" s="3" t="n">
-        <v>0.009527000000000001</v>
+        <v>0.05217</v>
       </c>
       <c r="J7" s="3" t="n">
         <v>200</v>
@@ -937,11 +937,11 @@
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 21:53:35', 'ftime': '2019-09-28 21:53:35', 'context': '【芜湖转运中心】 已发出 下一站 【安徽省宣城市泾县】', 'location': ''}, {'time': '2019-09-28 21:36:42', 'ftime': '2019-09-28 21:36:42', 'context': '【芜湖转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-28 06:42:54', 'ftime': '2019-09-28 06:42:54', 'context': '【合肥转运中心】 已发出 下一站 【芜湖转运中心】', 'location': ''}, {'time': '2019-09-28 06:38:21', 'ftime': '2019-09-28 06:38:21', 'context': '【合肥转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-27 23:56:36', 'ftime': '2019-09-27 23:56:36', 'context': '【浙江省湖州市】 已发出 下一站 【合肥转运中心】', 'location': ''}, {'time': '2019-09-27 23:31:00', 'ftime': '2019-09-27 23:31:00', 'context': '【浙江省湖州市公司】 已打包', 'location': ''}, {'time': '2019-09-27 23:30:10', 'ftime': '2019-09-27 23:30:10', 'context': '【浙江省湖州市公司】 已收件 取件人: 王烨 (13305723720)', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'C00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 02:42:37', 'ftime': '2019-09-29 02:42:37', 'context': '【济南转运中心】 已发出 下一站 【淮安转运中心】', 'location': None}, {'time': '2019-09-29 02:33:08', 'ftime': '2019-09-29 02:33:08', 'context': '【济南转运中心公司】 已打包', 'location': None}, {'time': '2019-09-29 02:07:32', 'ftime': '2019-09-29 02:07:32', 'context': '【济南转运中心公司】 已收入', 'location': None}, {'time': '2019-09-28 10:14:13', 'ftime': '2019-09-28 10:14:13', 'context': '【山东省济南市市场部公司】 已收件 取件人: 济南市市场部3 (95554)', 'location': None}]}</t>
         </is>
       </c>
       <c r="I8" s="3" t="n">
-        <v>0.073578</v>
+        <v>0.073658</v>
       </c>
       <c r="J8" s="3" t="n">
         <v>200</v>
@@ -989,11 +989,11 @@
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I9" s="3" t="n">
-        <v>0.00959</v>
+        <v>0.009154000000000001</v>
       </c>
       <c r="J9" s="3" t="n">
         <v>200</v>
@@ -1043,11 +1043,11 @@
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-26 10:07:10', 'context': '查无结果', 'ftime': '2019-09-26 10:07:10'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-28 16:53:45', 'ftime': '2019-09-28 16:53:45', 'context': '[福建厦门岛内古龙公司]快件已被 已签收 签收', 'location': '福建厦门岛内古龙公司'}, {'time': '2019-09-28 15:33:58', 'ftime': '2019-09-28 15:33:58', 'context': '[福建厦门岛内古龙公司]进行派件扫描；派送业务员：曾建东；联系电话：18650187550', 'location': '福建厦门岛内古龙公司'}, {'time': '2019-09-28 13:54:55', 'ftime': '2019-09-28 13:54:55', 'context': '[福建厦门岛内古龙公司]到达目的地网点，快件很快进行派送', 'location': '福建厦门岛内古龙公司'}, {'time': '2019-09-28 10:54:57', 'ftime': '2019-09-28 10:54:57', 'context': '[福建厦门分拨中心]从站点发出，本次转运目的地：福建厦门岛内古龙公司', 'location': '福建厦门分拨中心'}, {'time': '2019-09-28 10:46:41', 'ftime': '2019-09-28 10:46:41', 'context': '[福建厦门分拨中心]在分拨中心进行卸车扫描', 'location': '福建厦门分拨中心'}, {'time': '2019-09-28 08:17:38', 'ftime': '2019-09-28 08:17:38', 'context': '[福建晋江分拨中心]进行装车扫描，发往：福建厦门分拨中心', 'location': '福建晋江分拨中心'}, {'time': '2019-09-28 08:14:55', 'ftime': '2019-09-28 08:14:55', 'context': '[福建晋江分拨中心]在分拨中心进行卸车扫描', 'location': '福建晋江分拨中心'}, {'time': '2019-09-28 01:38:35', 'ftime': '2019-09-28 01:38:35', 'context': '[广东揭阳分拨中心]进行装车扫描，发往：福建晋江分拨中心', 'location': '广东揭阳分拨中心'}, {'time': '2019-09-28 01:36:53', 'ftime': '2019-09-28 01:36:53', 'context': '[广东揭阳分拨中心]在分拨中心进行称重扫描', 'location': '广东揭阳分拨中心'}, {'time': '2019-09-27 22:55:04', 'ftime': '2019-09-27 22:55:04', 'context': '[广东汕头澄海区公司]进行发出扫描，发往：广东揭阳分拨中心', 'location': '广东汕头澄海区公司'}, {'time': '2019-09-27 22:50:07', 'ftime': '2019-09-27 22:50:07', 'context': '[广东汕头澄海区公司]进行下级地点扫描，发往：福建厦门分拨中心', 'location': '广东汕头澄海区公司'}, {'time': '2019-09-27 21:16:45', 'ftime': '2019-09-27 21:16:45', 'context': '[广东汕头澄海区公司]进行揽件扫描', 'location': '广东汕头澄海区公司'}]}</t>
         </is>
       </c>
       <c r="I10" s="3" t="n">
-        <v>0.063232</v>
+        <v>0.07085900000000001</v>
       </c>
       <c r="J10" s="3" t="n">
         <v>200</v>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I11" s="3" t="n">
-        <v>0.014518</v>
+        <v>0.017913</v>
       </c>
       <c r="J11" s="3" t="n">
         <v>200</v>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-19 10:07:11', 'context': '查无结果', 'ftime': '2019-09-19 10:07:11'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 09:07:14', 'ftime': '2019-09-29 09:07:14', 'context': '已到达-安徽宁国公司', 'location': ''}, {'time': '2019-09-29 02:55:48', 'ftime': '2019-09-29 02:55:48', 'context': '安徽芜湖转运中心-已发往-安徽宁国公司', 'location': ''}, {'time': '2019-09-29 02:43:45', 'ftime': '2019-09-29 02:43:45', 'context': '已到达-安徽芜湖转运中心', 'location': ''}, {'time': '2019-09-28 01:23:31', 'ftime': '2019-09-28 01:23:31', 'context': '广东广州营溪分拨中心-已装袋发往-安徽芜湖转运中心', 'location': ''}, {'time': '2019-09-28 01:23:31', 'ftime': '2019-09-28 01:23:31', 'context': '广东广州营溪分拨中心-已进行装车扫描', 'location': ''}, {'time': '2019-09-28 01:13:49', 'ftime': '2019-09-28 01:13:49', 'context': '广东广州营溪分拨中心-已发往-安徽芜湖转运中心', 'location': ''}, {'time': '2019-09-28 01:13:49', 'ftime': '2019-09-28 01:13:49', 'context': '广东广州营溪分拨中心-已进行装袋扫描', 'location': ''}, {'time': '2019-09-28 01:07:17', 'ftime': '2019-09-28 01:07:17', 'context': '已到达-广东广州营溪分拨中心', 'location': ''}, {'time': '2019-09-17 11:25:42', 'ftime': '2019-09-17 11:25:42', 'context': '广东广州永泰公司-黎祖原(15364113050)-已收件', 'location': ''}, {'time': '2019-09-14 16:17:57', 'ftime': '2019-09-14 16:17:57', 'context': '广东广州永泰公司-黎祖原(15364113050)-已收件', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I12" s="3" t="n">
-        <v>0.072215</v>
+        <v>0.119793</v>
       </c>
       <c r="J12" s="3" t="n">
         <v>200</v>
@@ -1219,11 +1219,11 @@
       </c>
       <c r="H13" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I13" s="3" t="n">
-        <v>0.009523999999999999</v>
+        <v>0.009612000000000001</v>
       </c>
       <c r="J13" s="3" t="n">
         <v>200</v>
@@ -1282,11 +1282,11 @@
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-21 10:07:11', 'context': '查无结果', 'ftime': '2019-09-21 10:07:11'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 10:09:36', 'ftime': '2019-09-29 10:09:36', 'context': '货物已分配，等待配送', 'location': ''}, {'time': '2019-09-29 04:20:44', 'ftime': '2019-09-29 04:20:44', 'context': '货物已完成分拣，离开【宁波分拨中心】', 'location': ''}, {'time': '2019-09-28 23:48:53', 'ftime': '2019-09-28 23:48:53', 'context': '货物已到达【宁波分拨中心】', 'location': ''}, {'time': '2019-09-28 09:16:14', 'ftime': '2019-09-28 09:16:14', 'context': '货物已完成分拣，离开【华东外单分拣中心】', 'location': ''}, {'time': '2019-09-28 09:10:50', 'ftime': '2019-09-28 09:10:50', 'context': '货物已到达【华东外单分拣中心】', 'location': ''}, {'time': '2019-09-26 21:55:05', 'ftime': '2019-09-26 21:55:05', 'context': '货物已完成分拣，离开【重庆亚一分拨中心】', 'location': ''}, {'time': '2019-09-26 21:05:05', 'ftime': '2019-09-26 21:05:05', 'context': '货物已到达【重庆亚一分拨中心】', 'location': ''}, {'time': '2019-09-26 18:27:15', 'ftime': '2019-09-26 18:27:15', 'context': '货物已交付京东物流', 'location': ''}, {'time': '2019-09-26 18:27:15', 'ftime': '2019-09-26 18:27:15', 'context': '换单打印，原运单号QH50768240', 'location': ''}, {'time': '2019-09-26 18:27:15', 'ftime': '2019-09-26 18:27:15', 'context': '货物已到达【重庆照母山营业部】', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I14" s="3" t="n">
-        <v>0.066411</v>
+        <v>0.069467</v>
       </c>
       <c r="J14" s="3" t="n">
         <v>200</v>
@@ -1334,11 +1334,11 @@
       </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I15" s="3" t="n">
-        <v>0.01132</v>
+        <v>0.011021</v>
       </c>
       <c r="J15" s="3" t="n">
         <v>200</v>
@@ -1388,11 +1388,11 @@
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-16 10:07:11', 'context': '查无结果', 'ftime': '2019-09-16 10:07:11'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 22:45:20', 'ftime': '2019-09-28 22:45:20', 'context': '【沈阳转运中心】 已发出 下一站 【大连转运中心】', 'location': ''}, {'time': '2019-09-28 22:42:28', 'ftime': '2019-09-28 22:42:28', 'context': '【沈阳转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-26 04:02:55', 'ftime': '2019-09-26 04:02:55', 'context': '【成都转运中心】 已发出 下一站 【沈阳转运中心】', 'location': ''}, {'time': '2019-09-26 04:01:12', 'ftime': '2019-09-26 04:01:12', 'context': '【成都转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-23 17:33:11', 'ftime': '2019-09-23 17:33:11', 'context': '【四川省凉山彝族自治州盐源县】 已发出 下一站 【四川省凉山彝族自治州西昌市】', 'location': ''}, {'time': '2019-09-23 17:33:01', 'ftime': '2019-09-23 17:33:01', 'context': '【四川省凉山彝族自治州盐源县公司】 已收件 取件人: 邹福婷 (18481259710)', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I16" s="3" t="n">
-        <v>0.065029</v>
+        <v>0.071294</v>
       </c>
       <c r="J16" s="3" t="n">
         <v>200</v>
@@ -1440,11 +1440,11 @@
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I17" s="3" t="n">
-        <v>0.009561999999999999</v>
+        <v>0.012326</v>
       </c>
       <c r="J17" s="3" t="n">
         <v>200</v>
@@ -1503,11 +1503,11 @@
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-24 10:07:11', 'context': '查无结果', 'ftime': '2019-09-24 10:07:11'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-24 18:37:47', 'ftime': '2019-09-24 18:37:47', 'context': '[上海市]已签收,他人代收：速递易,投递员:王志强,电话:18019796360', 'location': '上海市'}, {'time': '2019-09-24 15:22:34', 'ftime': '2019-09-24 15:22:34', 'context': '[上海市]【车墩营业部】安排投递,投递员:王志强,电话:18019796360', 'location': '上海市'}, {'time': '2019-09-24 14:00:20', 'ftime': '2019-09-24 14:00:20', 'context': '[上海市]到达【车墩营业部】', 'location': '上海市'}, {'time': '2019-09-24 11:42:38', 'ftime': '2019-09-24 11:42:38', 'context': '[上海市]离开【上海市嘉民处理中心】,下一站【车墩营业部】', 'location': '上海市'}, {'time': '2019-09-24 01:40:28', 'ftime': '2019-09-24 01:40:28', 'context': '[上海市]到达【上海市嘉民处理中心】', 'location': '上海市'}, {'time': '2019-09-23 20:52:49', 'ftime': '2019-09-23 20:52:49', 'context': '[金华市]离开【邮政义乌市四海大道】,下一站【上海市嘉民处理中心】', 'location': '金华市'}, {'time': '2019-09-23 00:24:13', 'ftime': '2019-09-23 00:24:13', 'context': '[金华市]到达【邮政义乌市四海大道】', 'location': '金华市'}, {'time': '2019-09-23 00:15:36', 'ftime': '2019-09-23 00:15:36', 'context': '[金华市]离开【义乌快包】,下一站【义乌基地】', 'location': '金华市'}, {'time': '2019-09-23 00:09:32', 'ftime': '2019-09-23 00:09:32', 'context': '[金华市]【义乌快包】已收件,揽投员:易通临时15,电话:17763049952', 'location': '金华市'}]}</t>
         </is>
       </c>
       <c r="I18" s="3" t="n">
-        <v>0.073099</v>
+        <v>0.07123500000000001</v>
       </c>
       <c r="J18" s="3" t="n">
         <v>200</v>
@@ -1564,11 +1564,11 @@
       </c>
       <c r="H19" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I19" s="3" t="n">
-        <v>0.008404999999999999</v>
+        <v>0.008689000000000001</v>
       </c>
       <c r="J19" s="3" t="n">
         <v>200</v>

--- a/data_excel/接口测试用例_ (4).xlsx
+++ b/data_excel/接口测试用例_ (4).xlsx
@@ -610,11 +610,11 @@
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 23:18:00', 'ftime': '2019-09-28 23:18:00', 'context': '[天津市]快件已发车', 'location': '天津市'}, {'time': '2019-09-28 21:09:00', 'ftime': '2019-09-28 21:09:00', 'context': '[天津市]快件在【华北陆运枢纽（天津）】已装车,准备发往 【太原小店集散中心】', 'location': '天津市'}, {'time': '2019-09-28 20:13:00', 'ftime': '2019-09-28 20:13:00', 'context': '[天津市]快件到达 【华北陆运枢纽（天津）】', 'location': '天津市'}, {'time': '2019-09-27 22:46:00', 'ftime': '2019-09-27 22:46:00', 'context': '[哈尔滨市]快件已发车', 'location': '哈尔滨市'}, {'time': '2019-09-27 22:31:00', 'ftime': '2019-09-27 22:31:00', 'context': '[哈尔滨市]快件在【哈尔滨龙运临时集散中心】已装车,准备发往 【华北陆运枢纽（天津）】', 'location': '哈尔滨市'}, {'time': '2019-09-27 19:41:00', 'ftime': '2019-09-27 19:41:00', 'context': '[哈尔滨市]快件到达 【哈尔滨龙运临时集散中心】', 'location': '哈尔滨市'}, {'time': '2019-09-27 16:55:00', 'ftime': '2019-09-27 16:55:00', 'context': '[哈尔滨市]快件已发车', 'location': '哈尔滨市'}, {'time': '2019-09-27 16:33:00', 'ftime': '2019-09-27 16:33:00', 'context': '[哈尔滨市]快件在【哈尔滨尚志市腾飞大街营业点】已装车,准备发往下一站', 'location': '哈尔滨市'}, {'time': '2019-09-27 16:17:00', 'ftime': '2019-09-27 16:17:00', 'context': '[哈尔滨市]顺丰速运 已收取快件', 'location': '哈尔滨市'}, {'time': '2019-09-27 16:09:00', 'ftime': '2019-09-27 16:09:00', 'context': '[哈尔滨市]顺丰速运 已收取快件', 'location': '哈尔滨市'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'B00', 'com': 'zhongtong', 'status': '200', 'state': '1', 'data': [{'time': '2019-09-12 17:18:51', 'ftime': '2019-09-12 17:18:51', 'context': '[成都市]收件人已取走邮件', 'location': ''}, {'time': '2019-09-12 16:34:11', 'ftime': '2019-09-12 16:34:11', 'context': '[成都市]邮件投递到核工业西南物理研究院速递易A10包裹柜,投递员:刘克江,电话:15982887505', 'location': ''}, {'time': '2019-09-12 14:41:18', 'ftime': '2019-09-12 14:41:18', 'context': '[成都市]双流航空港营业部】安排投递,投递员:刘克江,电话:15982887505', 'location': ''}, {'time': '2019-09-12 13:29:49', 'ftime': '2019-09-12 13:29:49', 'context': '[成都市]到达【双流航空港营业部】', 'location': ''}, {'time': '2019-09-12 12:52:37', 'ftime': '2019-09-12 12:52:37', 'context': '[成都市]离开【成都中心】,下一站【双流航空港营业部】', 'location': ''}, {'time': '2019-09-10 13:57:14', 'ftime': '2019-09-10 13:57:14', 'context': '到达【济南中心】（经转）', 'location': ''}, {'time': '2019-09-09 23:56:24', 'ftime': '2019-09-09 23:56:24', 'context': '离开【淄博处理中心】,下一站【济南中心】', 'location': ''}, {'time': '2019-09-09 19:43:34', 'ftime': '2019-09-09 19:43:34', 'context': '到达【淄博处理中心】', 'location': ''}, {'time': '2019-09-09 19:36:59', 'ftime': '2019-09-09 19:36:59', 'context': '离开【淄博大宗】,下一站【淄博中心】', 'location': ''}, {'time': '2019-09-09 16:29:11', 'ftime': '2019-09-09 16:29:11', 'context': '【淄博大宗】已收件,揽投员:王新栋,电话:15762802351', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0.06879200000000001</v>
+        <v>0.071037</v>
       </c>
       <c r="J2" s="3" t="n">
         <v>200</v>
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0.008942</v>
+        <v>0.009896</v>
       </c>
       <c r="J3" s="3" t="n">
         <v>200</v>
@@ -725,11 +725,11 @@
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-02 10:22:13', 'context': '查无结果', 'ftime': '2019-09-02 10:22:13'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 08:55:08', 'ftime': '2019-09-29 08:55:08', 'context': '【惠州市】 快件已经到达 【惠东】', 'location': ''}, {'time': '2019-09-29 05:38:55', 'ftime': '2019-09-29 05:38:55', 'context': '【东莞市】 快件离开 【东莞中心】 已发往 【惠东】', 'location': ''}, {'time': '2019-09-29 05:32:53', 'ftime': '2019-09-29 05:32:53', 'context': '【东莞市】 快件已经到达 【东莞中心】', 'location': ''}, {'time': '2019-09-29 02:43:06', 'ftime': '2019-09-29 02:43:06', 'context': '【广州市】 快件离开 【广州中心】 已发往 【东莞中心】', 'location': ''}, {'time': '2019-09-29 02:40:49', 'ftime': '2019-09-29 02:40:49', 'context': '【广州市】 快件已经到达 【广州中心】', 'location': ''}, {'time': '2019-09-28 23:17:19', 'ftime': '2019-09-28 23:17:19', 'context': '【广州市】 快件离开 【广州新华】 已发往 【东莞中心】', 'location': ''}, {'time': '2019-09-28 22:43:00', 'ftime': '2019-09-28 22:43:00', 'context': '【广州市】 【广州新华】（020-22144488） 的 客户罗贵东（13724047709） 已揽收', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0.067539</v>
+        <v>0.073309</v>
       </c>
       <c r="J4" s="3" t="n">
         <v>200</v>
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="I5" s="3" t="n">
-        <v>0.009738</v>
+        <v>0.010468</v>
       </c>
       <c r="J5" s="3" t="n">
         <v>200</v>
@@ -831,11 +831,11 @@
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 07:01:18', 'ftime': '2019-09-29 07:01:18', 'context': '运输中,货物由南平前往建瓯途中', 'location': ''}, {'time': '2019-09-28 18:19:38', 'ftime': '2019-09-28 18:19:38', 'context': '货物在[南平]完成装车,等待出发', 'location': ''}, {'time': '2019-09-27 16:39:58', 'ftime': '2019-09-27 16:39:58', 'context': '运输中,到达[南平]入库,待中转', 'location': ''}, {'time': '2019-09-27 16:34:35', 'ftime': '2019-09-27 16:34:35', 'context': '运输中,到达中转地[南平],车辆正在卸货', 'location': ''}, {'time': '2019-09-27 15:12:08', 'ftime': '2019-09-27 15:12:08', 'context': '运输中,到达中转地[南平],等待卸车', 'location': ''}, {'time': '2019-09-27 13:58:10', 'ftime': '2019-09-27 13:58:10', 'context': '运输中,货物由三明梅列前往南平途中', 'location': ''}, {'time': '2019-09-26 23:30:49', 'ftime': '2019-09-26 23:30:49', 'context': '运输中,货物由武汉前往南平途中', 'location': ''}, {'time': '2019-09-26 22:28:11', 'ftime': '2019-09-26 22:28:11', 'context': '货物在[武汉]完成装车,等待出发', 'location': ''}, {'time': '2019-09-26 14:56:13', 'ftime': '2019-09-26 14:56:13', 'context': '运输中,到达[武汉]入库,待中转', 'location': ''}, {'time': '2019-09-25 21:11:45', 'ftime': '2019-09-25 21:11:45', 'context': '运输中,到达中转地[武汉],车辆正在卸货', 'location': ''}, {'time': '2019-09-25 20:53:59', 'ftime': '2019-09-25 20:53:59', 'context': '运输中,到达中转地[武汉],等待卸车', 'location': ''}, {'time': '2019-09-25 20:26:12', 'ftime': '2019-09-25 20:26:12', 'context': '运输中,货物由武汉硚口前往武汉途中', 'location': ''}, {'time': '2019-09-25 20:01:08', 'ftime': '2019-09-25 20:01:08', 'context': '货物在[武汉硚口]完成装车,等待出发', 'location': ''}, {'time': '2019-09-25 19:14:19', 'ftime': '2019-09-25 19:14:19', 'context': '货物已承接,于[武汉硚口]公司入库', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 08:08:05', 'ftime': '2019-09-29 08:08:05', 'context': '【伊春市】 【伊春红旗分部】 的李师傅（13796488870） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': ''}, {'time': '2019-09-29 08:08:04', 'ftime': '2019-09-29 08:08:04', 'context': '【伊春市】 快件已经到达 【伊春红旗分部】', 'location': ''}, {'time': '2019-09-29 07:44:36', 'ftime': '2019-09-29 07:44:36', 'context': '【伊春市】 快件离开 【伊春】 已发往 【伊春红旗分部】', 'location': ''}, {'time': '2019-09-28 13:08:18', 'ftime': '2019-09-28 13:08:18', 'context': '【哈尔滨市】 快件离开 【哈尔滨中转】 已发往 【伊春】', 'location': ''}, {'time': '2019-09-28 11:48:57', 'ftime': '2019-09-28 11:48:57', 'context': '【哈尔滨市】 快件已经到达 【哈尔滨中转】', 'location': ''}, {'time': '2019-09-26 02:14:24', 'ftime': '2019-09-26 02:14:24', 'context': '【泉州市】 快件离开 【泉州中转部】 已发往 【哈尔滨中转】', 'location': ''}, {'time': '2019-09-26 02:07:20', 'ftime': '2019-09-26 02:07:20', 'context': '【泉州市】 快件已经到达 【泉州中转部】', 'location': ''}, {'time': '2019-09-25 23:35:00', 'ftime': '2019-09-25 23:35:00', 'context': '【厦门市】 快件离开 【厦门中转部】 已发往 【泉州中转部】', 'location': ''}, {'time': '2019-09-25 23:27:35', 'ftime': '2019-09-25 23:27:35', 'context': '【厦门市】 快件已经到达 【厦门中转部】', 'location': ''}, {'time': '2019-09-25 22:51:40', 'ftime': '2019-09-25 22:51:40', 'context': '【厦门市】 快件离开 【厦门湖里五部】 已发往 【哈尔滨中转】', 'location': ''}, {'time': '2019-09-25 22:07:59', 'ftime': '2019-09-25 22:07:59', 'context': '【厦门市】 快件已经到达 【厦门湖里五部】', 'location': ''}, {'time': '2019-09-25 17:03:59', 'ftime': '2019-09-25 17:03:59', 'context': '【厦门市】 【海沧东孚】（0592-6311262） 的 陈振峥（16605924220） 已揽收', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I6" s="3" t="n">
-        <v>0.06945999999999999</v>
+        <v>0.07464700000000001</v>
       </c>
       <c r="J6" s="3" t="n">
         <v>200</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="I7" s="3" t="n">
-        <v>0.05217</v>
+        <v>0.011263</v>
       </c>
       <c r="J7" s="3" t="n">
         <v>200</v>
@@ -937,11 +937,11 @@
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'C00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 02:42:37', 'ftime': '2019-09-29 02:42:37', 'context': '【济南转运中心】 已发出 下一站 【淮安转运中心】', 'location': None}, {'time': '2019-09-29 02:33:08', 'ftime': '2019-09-29 02:33:08', 'context': '【济南转运中心公司】 已打包', 'location': None}, {'time': '2019-09-29 02:07:32', 'ftime': '2019-09-29 02:07:32', 'context': '【济南转运中心公司】 已收入', 'location': None}, {'time': '2019-09-28 10:14:13', 'ftime': '2019-09-28 10:14:13', 'context': '【山东省济南市市场部公司】 已收件 取件人: 济南市市场部3 (95554)', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 06:10:16', 'ftime': '2019-09-29 06:10:16', 'context': '【钦州市】 快件离开 【钦州】 已发往 【钦州犀牛脚镇】', 'location': ''}, {'time': '2019-09-28 12:31:36', 'ftime': '2019-09-28 12:31:36', 'context': '【钦州市】 快件已经到达 【钦州】', 'location': ''}, {'time': '2019-09-28 06:12:35', 'ftime': '2019-09-28 06:12:35', 'context': '【南宁市】 快件离开 【南宁中转】 已发往 【钦州】', 'location': ''}, {'time': '2019-09-28 04:02:37', 'ftime': '2019-09-28 04:02:37', 'context': '【南宁市】 快件已经到达 【南宁中转】', 'location': ''}, {'time': '2019-09-26 17:41:02', 'ftime': '2019-09-26 17:41:02', 'context': '【西安市】 快件离开 【西安中转】 已发往 【南宁中转】', 'location': ''}, {'time': '2019-09-26 16:56:10', 'ftime': '2019-09-26 16:56:10', 'context': '【西安市】 快件已经到达 【西安中转】', 'location': ''}, {'time': '2019-09-26 00:42:04', 'ftime': '2019-09-26 00:42:04', 'context': '【咸阳市】 快件离开 【武功中转】 已发往 【西安】', 'location': ''}, {'time': '2019-09-26 00:39:40', 'ftime': '2019-09-26 00:39:40', 'context': '【咸阳市】 快件已经到达 【武功中转】', 'location': ''}, {'time': '2019-09-25 20:45:04', 'ftime': '2019-09-25 20:45:04', 'context': '【咸阳市】 快件离开 【咸阳】 已发往 【西安中转】', 'location': ''}, {'time': '2019-09-25 19:54:04', 'ftime': '2019-09-25 19:54:04', 'context': '【咸阳市】 【咸阳】（029-87962368） 的 咸阳俏丫头（15229809606） 已揽收', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I8" s="3" t="n">
-        <v>0.073658</v>
+        <v>0.073032</v>
       </c>
       <c r="J8" s="3" t="n">
         <v>200</v>
@@ -993,7 +993,7 @@
         </is>
       </c>
       <c r="I9" s="3" t="n">
-        <v>0.009154000000000001</v>
+        <v>0.010187</v>
       </c>
       <c r="J9" s="3" t="n">
         <v>200</v>
@@ -1043,11 +1043,11 @@
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-28 16:53:45', 'ftime': '2019-09-28 16:53:45', 'context': '[福建厦门岛内古龙公司]快件已被 已签收 签收', 'location': '福建厦门岛内古龙公司'}, {'time': '2019-09-28 15:33:58', 'ftime': '2019-09-28 15:33:58', 'context': '[福建厦门岛内古龙公司]进行派件扫描；派送业务员：曾建东；联系电话：18650187550', 'location': '福建厦门岛内古龙公司'}, {'time': '2019-09-28 13:54:55', 'ftime': '2019-09-28 13:54:55', 'context': '[福建厦门岛内古龙公司]到达目的地网点，快件很快进行派送', 'location': '福建厦门岛内古龙公司'}, {'time': '2019-09-28 10:54:57', 'ftime': '2019-09-28 10:54:57', 'context': '[福建厦门分拨中心]从站点发出，本次转运目的地：福建厦门岛内古龙公司', 'location': '福建厦门分拨中心'}, {'time': '2019-09-28 10:46:41', 'ftime': '2019-09-28 10:46:41', 'context': '[福建厦门分拨中心]在分拨中心进行卸车扫描', 'location': '福建厦门分拨中心'}, {'time': '2019-09-28 08:17:38', 'ftime': '2019-09-28 08:17:38', 'context': '[福建晋江分拨中心]进行装车扫描，发往：福建厦门分拨中心', 'location': '福建晋江分拨中心'}, {'time': '2019-09-28 08:14:55', 'ftime': '2019-09-28 08:14:55', 'context': '[福建晋江分拨中心]在分拨中心进行卸车扫描', 'location': '福建晋江分拨中心'}, {'time': '2019-09-28 01:38:35', 'ftime': '2019-09-28 01:38:35', 'context': '[广东揭阳分拨中心]进行装车扫描，发往：福建晋江分拨中心', 'location': '广东揭阳分拨中心'}, {'time': '2019-09-28 01:36:53', 'ftime': '2019-09-28 01:36:53', 'context': '[广东揭阳分拨中心]在分拨中心进行称重扫描', 'location': '广东揭阳分拨中心'}, {'time': '2019-09-27 22:55:04', 'ftime': '2019-09-27 22:55:04', 'context': '[广东汕头澄海区公司]进行发出扫描，发往：广东揭阳分拨中心', 'location': '广东汕头澄海区公司'}, {'time': '2019-09-27 22:50:07', 'ftime': '2019-09-27 22:50:07', 'context': '[广东汕头澄海区公司]进行下级地点扫描，发往：福建厦门分拨中心', 'location': '广东汕头澄海区公司'}, {'time': '2019-09-27 21:16:45', 'ftime': '2019-09-27 21:16:45', 'context': '[广东汕头澄海区公司]进行揽件扫描', 'location': '广东汕头澄海区公司'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-07-22 15:20:00', 'ftime': '2019-07-22 15:20:00', 'context': '[Sant Joan Despi]发货已送达住宅', 'location': 'Sant Joan Despi'}, {'time': '2019-07-22 08:54:05', 'ftime': '2019-07-22 08:54:05', 'context': '[Barcelona]货件正在派送中。', 'location': 'Barcelona'}, {'time': '2019-07-22 06:02:40', 'ftime': '2019-07-22 06:02:40', 'context': '[Barcelona]货件已到达距离派件地址最近的站点', 'location': 'Barcelona'}, {'time': '2019-07-22 06:02:40', 'ftime': '2019-07-22 06:02:40', 'context': '[Barcelona]货物正在 TNT 站点操作。', 'location': 'Barcelona'}, {'time': '2019-07-19 23:01:00', 'ftime': '2019-07-19 23:01:00', 'context': '[Madrid]货物运输中', 'location': 'Madrid'}, {'time': '2019-07-19 21:33:46', 'ftime': '2019-07-19 21:33:46', 'context': '[Madrid]货物运输中', 'location': 'Madrid'}, {'time': '2019-07-19 21:33:17', 'ftime': '2019-07-19 21:33:17', 'context': '[Madrid]货物正在 TNT 站点操作。', 'location': 'Madrid'}, {'time': '2019-07-19 20:14:36', 'ftime': '2019-07-19 20:14:36', 'context': '[Madrid]货件已由首选 TNT 站点接收。', 'location': 'Madrid'}]}</t>
         </is>
       </c>
       <c r="I10" s="3" t="n">
-        <v>0.07085900000000001</v>
+        <v>0.076788</v>
       </c>
       <c r="J10" s="3" t="n">
         <v>200</v>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I11" s="3" t="n">
-        <v>0.017913</v>
+        <v>0.010081</v>
       </c>
       <c r="J11" s="3" t="n">
         <v>200</v>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 09:07:14', 'ftime': '2019-09-29 09:07:14', 'context': '已到达-安徽宁国公司', 'location': ''}, {'time': '2019-09-29 02:55:48', 'ftime': '2019-09-29 02:55:48', 'context': '安徽芜湖转运中心-已发往-安徽宁国公司', 'location': ''}, {'time': '2019-09-29 02:43:45', 'ftime': '2019-09-29 02:43:45', 'context': '已到达-安徽芜湖转运中心', 'location': ''}, {'time': '2019-09-28 01:23:31', 'ftime': '2019-09-28 01:23:31', 'context': '广东广州营溪分拨中心-已装袋发往-安徽芜湖转运中心', 'location': ''}, {'time': '2019-09-28 01:23:31', 'ftime': '2019-09-28 01:23:31', 'context': '广东广州营溪分拨中心-已进行装车扫描', 'location': ''}, {'time': '2019-09-28 01:13:49', 'ftime': '2019-09-28 01:13:49', 'context': '广东广州营溪分拨中心-已发往-安徽芜湖转运中心', 'location': ''}, {'time': '2019-09-28 01:13:49', 'ftime': '2019-09-28 01:13:49', 'context': '广东广州营溪分拨中心-已进行装袋扫描', 'location': ''}, {'time': '2019-09-28 01:07:17', 'ftime': '2019-09-28 01:07:17', 'context': '已到达-广东广州营溪分拨中心', 'location': ''}, {'time': '2019-09-17 11:25:42', 'ftime': '2019-09-17 11:25:42', 'context': '广东广州永泰公司-黎祖原(15364113050)-已收件', 'location': ''}, {'time': '2019-09-14 16:17:57', 'ftime': '2019-09-14 16:17:57', 'context': '广东广州永泰公司-黎祖原(15364113050)-已收件', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 19:24:51', 'ftime': '2019-09-28 19:24:51', 'context': '【福州转运中心】 已发出 下一站 【西安转运中心】', 'location': ''}, {'time': '2019-09-28 07:30:00', 'ftime': '2019-09-28 07:30:00', 'context': '【福州转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-28 05:36:36', 'ftime': '2019-09-28 05:36:36', 'context': '【福建省莆田市】 已发出 下一站 【福州转运中心】', 'location': ''}, {'time': '2019-09-28 05:29:25', 'ftime': '2019-09-28 05:29:25', 'context': '【福建省莆田市公司】 已打包', 'location': ''}, {'time': '2019-09-28 00:27:55', 'ftime': '2019-09-28 00:27:55', 'context': '【福建省莆田市公司】 已收件 取件人: 刘海彬 (18030346864)', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I12" s="3" t="n">
-        <v>0.119793</v>
+        <v>0.072662</v>
       </c>
       <c r="J12" s="3" t="n">
         <v>200</v>
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="I13" s="3" t="n">
-        <v>0.009612000000000001</v>
+        <v>0.010717</v>
       </c>
       <c r="J13" s="3" t="n">
         <v>200</v>
@@ -1282,11 +1282,11 @@
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 10:09:36', 'ftime': '2019-09-29 10:09:36', 'context': '货物已分配，等待配送', 'location': ''}, {'time': '2019-09-29 04:20:44', 'ftime': '2019-09-29 04:20:44', 'context': '货物已完成分拣，离开【宁波分拨中心】', 'location': ''}, {'time': '2019-09-28 23:48:53', 'ftime': '2019-09-28 23:48:53', 'context': '货物已到达【宁波分拨中心】', 'location': ''}, {'time': '2019-09-28 09:16:14', 'ftime': '2019-09-28 09:16:14', 'context': '货物已完成分拣，离开【华东外单分拣中心】', 'location': ''}, {'time': '2019-09-28 09:10:50', 'ftime': '2019-09-28 09:10:50', 'context': '货物已到达【华东外单分拣中心】', 'location': ''}, {'time': '2019-09-26 21:55:05', 'ftime': '2019-09-26 21:55:05', 'context': '货物已完成分拣，离开【重庆亚一分拨中心】', 'location': ''}, {'time': '2019-09-26 21:05:05', 'ftime': '2019-09-26 21:05:05', 'context': '货物已到达【重庆亚一分拨中心】', 'location': ''}, {'time': '2019-09-26 18:27:15', 'ftime': '2019-09-26 18:27:15', 'context': '货物已交付京东物流', 'location': ''}, {'time': '2019-09-26 18:27:15', 'ftime': '2019-09-26 18:27:15', 'context': '换单打印，原运单号QH50768240', 'location': ''}, {'time': '2019-09-26 18:27:15', 'ftime': '2019-09-26 18:27:15', 'context': '货物已到达【重庆照母山营业部】', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 15:41:38', 'ftime': '2019-09-28 15:41:38', 'context': '[荆门市]快件到达 【荆门掇刀集散点】', 'location': '荆门市'}, {'time': '2019-09-28 12:38:00', 'ftime': '2019-09-28 12:38:00', 'context': '[武汉市]快件已发车', 'location': '武汉市'}, {'time': '2019-09-28 11:44:18', 'ftime': '2019-09-28 11:44:18', 'context': '[武汉市]快件在【武汉吴家山集散中心】已装车,准备发往 【荆门掇刀集散点】', 'location': '武汉市'}, {'time': '2019-09-28 10:19:55', 'ftime': '2019-09-28 10:19:55', 'context': '[武汉市]快件到达 【武汉吴家山集散中心】', 'location': '武汉市'}, {'time': '2019-09-27 18:36:36', 'ftime': '2019-09-27 18:36:36', 'context': '[东莞市]快件已发车', 'location': '东莞市'}, {'time': '2019-09-27 14:55:35', 'ftime': '2019-09-27 14:55:35', 'context': '[东莞市]快件在【东莞沙田集散中心】已装车,准备发往 【武汉吴家山集散中心】', 'location': '东莞市'}, {'time': '2019-09-27 14:31:14', 'ftime': '2019-09-27 14:31:14', 'context': '[东莞市]快件到达 【东莞沙田集散中心】', 'location': '东莞市'}, {'time': '2019-09-27 13:43:40', 'ftime': '2019-09-27 13:43:40', 'context': '[东莞市]快件已发车', 'location': '东莞市'}, {'time': '2019-09-27 13:38:39', 'ftime': '2019-09-27 13:38:39', 'context': '[东莞市]快件在【东莞虎门集散中心】已装车,准备发往 【东莞沙田集散中心】', 'location': '东莞市'}, {'time': '2019-09-27 13:14:55', 'ftime': '2019-09-27 13:14:55', 'context': '[东莞市]快件到达 【东莞虎门集散中心】', 'location': '东莞市'}, {'time': '2019-09-27 12:14:19', 'ftime': '2019-09-27 12:14:19', 'context': '[东莞市]快件已发车', 'location': '东莞市'}, {'time': '2019-09-27 12:08:04', 'ftime': '2019-09-27 12:08:04', 'context': '[东莞市]快件在【东莞东城瑞龙营业点】已装车,准备发往下一站', 'location': '东莞市'}, {'time': '2019-09-27 11:42:40', 'ftime': '2019-09-27 11:42:40', 'context': '[东莞市]顺丰速运 已收取快件', 'location': '东莞市'}]}</t>
         </is>
       </c>
       <c r="I14" s="3" t="n">
-        <v>0.069467</v>
+        <v>0.069574</v>
       </c>
       <c r="J14" s="3" t="n">
         <v>200</v>
@@ -1338,7 +1338,7 @@
         </is>
       </c>
       <c r="I15" s="3" t="n">
-        <v>0.011021</v>
+        <v>0.010571</v>
       </c>
       <c r="J15" s="3" t="n">
         <v>200</v>
@@ -1388,11 +1388,11 @@
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 22:45:20', 'ftime': '2019-09-28 22:45:20', 'context': '【沈阳转运中心】 已发出 下一站 【大连转运中心】', 'location': ''}, {'time': '2019-09-28 22:42:28', 'ftime': '2019-09-28 22:42:28', 'context': '【沈阳转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-26 04:02:55', 'ftime': '2019-09-26 04:02:55', 'context': '【成都转运中心】 已发出 下一站 【沈阳转运中心】', 'location': ''}, {'time': '2019-09-26 04:01:12', 'ftime': '2019-09-26 04:01:12', 'context': '【成都转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-23 17:33:11', 'ftime': '2019-09-23 17:33:11', 'context': '【四川省凉山彝族自治州盐源县】 已发出 下一站 【四川省凉山彝族自治州西昌市】', 'location': ''}, {'time': '2019-09-23 17:33:01', 'ftime': '2019-09-23 17:33:01', 'context': '【四川省凉山彝族自治州盐源县公司】 已收件 取件人: 邹福婷 (18481259710)', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-08 10:28:25', 'context': '查无结果', 'ftime': '2019-09-08 10:28:25'}]}</t>
         </is>
       </c>
       <c r="I16" s="3" t="n">
-        <v>0.071294</v>
+        <v>0.062989</v>
       </c>
       <c r="J16" s="3" t="n">
         <v>200</v>
@@ -1444,7 +1444,7 @@
         </is>
       </c>
       <c r="I17" s="3" t="n">
-        <v>0.012326</v>
+        <v>0.00912</v>
       </c>
       <c r="J17" s="3" t="n">
         <v>200</v>
@@ -1503,11 +1503,11 @@
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-24 18:37:47', 'ftime': '2019-09-24 18:37:47', 'context': '[上海市]已签收,他人代收：速递易,投递员:王志强,电话:18019796360', 'location': '上海市'}, {'time': '2019-09-24 15:22:34', 'ftime': '2019-09-24 15:22:34', 'context': '[上海市]【车墩营业部】安排投递,投递员:王志强,电话:18019796360', 'location': '上海市'}, {'time': '2019-09-24 14:00:20', 'ftime': '2019-09-24 14:00:20', 'context': '[上海市]到达【车墩营业部】', 'location': '上海市'}, {'time': '2019-09-24 11:42:38', 'ftime': '2019-09-24 11:42:38', 'context': '[上海市]离开【上海市嘉民处理中心】,下一站【车墩营业部】', 'location': '上海市'}, {'time': '2019-09-24 01:40:28', 'ftime': '2019-09-24 01:40:28', 'context': '[上海市]到达【上海市嘉民处理中心】', 'location': '上海市'}, {'time': '2019-09-23 20:52:49', 'ftime': '2019-09-23 20:52:49', 'context': '[金华市]离开【邮政义乌市四海大道】,下一站【上海市嘉民处理中心】', 'location': '金华市'}, {'time': '2019-09-23 00:24:13', 'ftime': '2019-09-23 00:24:13', 'context': '[金华市]到达【邮政义乌市四海大道】', 'location': '金华市'}, {'time': '2019-09-23 00:15:36', 'ftime': '2019-09-23 00:15:36', 'context': '[金华市]离开【义乌快包】,下一站【义乌基地】', 'location': '金华市'}, {'time': '2019-09-23 00:09:32', 'ftime': '2019-09-23 00:09:32', 'context': '[金华市]【义乌快包】已收件,揽投员:易通临时15,电话:17763049952', 'location': '金华市'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-22 10:28:25', 'context': '查无结果', 'ftime': '2019-09-22 10:28:25'}]}</t>
         </is>
       </c>
       <c r="I18" s="3" t="n">
-        <v>0.07123500000000001</v>
+        <v>0.069546</v>
       </c>
       <c r="J18" s="3" t="n">
         <v>200</v>
@@ -1568,7 +1568,7 @@
         </is>
       </c>
       <c r="I19" s="3" t="n">
-        <v>0.008689000000000001</v>
+        <v>0.011126</v>
       </c>
       <c r="J19" s="3" t="n">
         <v>200</v>

--- a/data_excel/接口测试用例_ (4).xlsx
+++ b/data_excel/接口测试用例_ (4).xlsx
@@ -610,11 +610,11 @@
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'B00', 'com': 'zhongtong', 'status': '200', 'state': '1', 'data': [{'time': '2019-09-12 17:18:51', 'ftime': '2019-09-12 17:18:51', 'context': '[成都市]收件人已取走邮件', 'location': ''}, {'time': '2019-09-12 16:34:11', 'ftime': '2019-09-12 16:34:11', 'context': '[成都市]邮件投递到核工业西南物理研究院速递易A10包裹柜,投递员:刘克江,电话:15982887505', 'location': ''}, {'time': '2019-09-12 14:41:18', 'ftime': '2019-09-12 14:41:18', 'context': '[成都市]双流航空港营业部】安排投递,投递员:刘克江,电话:15982887505', 'location': ''}, {'time': '2019-09-12 13:29:49', 'ftime': '2019-09-12 13:29:49', 'context': '[成都市]到达【双流航空港营业部】', 'location': ''}, {'time': '2019-09-12 12:52:37', 'ftime': '2019-09-12 12:52:37', 'context': '[成都市]离开【成都中心】,下一站【双流航空港营业部】', 'location': ''}, {'time': '2019-09-10 13:57:14', 'ftime': '2019-09-10 13:57:14', 'context': '到达【济南中心】（经转）', 'location': ''}, {'time': '2019-09-09 23:56:24', 'ftime': '2019-09-09 23:56:24', 'context': '离开【淄博处理中心】,下一站【济南中心】', 'location': ''}, {'time': '2019-09-09 19:43:34', 'ftime': '2019-09-09 19:43:34', 'context': '到达【淄博处理中心】', 'location': ''}, {'time': '2019-09-09 19:36:59', 'ftime': '2019-09-09 19:36:59', 'context': '离开【淄博大宗】,下一站【淄博中心】', 'location': ''}, {'time': '2019-09-09 16:29:11', 'ftime': '2019-09-09 16:29:11', 'context': '【淄博大宗】已收件,揽投员:王新栋,电话:15762802351', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-28 14:09:44', 'ftime': '2019-09-28 14:09:44', 'context': '[邮政大石桥市石佛]在 营口市 已签收,他人代收：玉华,投递员:王威,电话:18141778163', 'location': '邮政大石桥市石佛'}, {'time': '2019-09-28 10:59:18', 'ftime': '2019-09-28 10:59:18', 'context': '到达【邮政大石桥市石佛】', 'location': '邮政大石桥市石佛'}, {'time': '2019-09-28 10:50:19', 'ftime': '2019-09-28 10:50:19', 'context': '【邮政大石桥市石佛】安排投递,投递员:王威,电话:18141778163', 'location': '邮政大石桥市石佛'}, {'time': '2019-09-28 08:58:36', 'ftime': '2019-09-28 08:58:36', 'context': '离开【大石桥营业部】,下一站【邮政大石桥市石佛】', 'location': '大石桥营业部'}, {'time': '2019-09-28 06:37:49', 'ftime': '2019-09-28 06:37:49', 'context': '到达【大石桥营业部】', 'location': '大石桥营业部'}, {'time': '2019-09-27 16:35:08', 'ftime': '2019-09-27 16:35:08', 'context': '营口市 【营口市快包大宗】已收件,揽投员:刘永强,电话:18141778244', 'location': '营口市快包大宗'}]}</t>
         </is>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0.071037</v>
+        <v>0.07368</v>
       </c>
       <c r="J2" s="3" t="n">
         <v>200</v>
@@ -671,11 +671,11 @@
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0.009896</v>
+        <v>0.010248</v>
       </c>
       <c r="J3" s="3" t="n">
         <v>200</v>
@@ -725,11 +725,11 @@
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 08:55:08', 'ftime': '2019-09-29 08:55:08', 'context': '【惠州市】 快件已经到达 【惠东】', 'location': ''}, {'time': '2019-09-29 05:38:55', 'ftime': '2019-09-29 05:38:55', 'context': '【东莞市】 快件离开 【东莞中心】 已发往 【惠东】', 'location': ''}, {'time': '2019-09-29 05:32:53', 'ftime': '2019-09-29 05:32:53', 'context': '【东莞市】 快件已经到达 【东莞中心】', 'location': ''}, {'time': '2019-09-29 02:43:06', 'ftime': '2019-09-29 02:43:06', 'context': '【广州市】 快件离开 【广州中心】 已发往 【东莞中心】', 'location': ''}, {'time': '2019-09-29 02:40:49', 'ftime': '2019-09-29 02:40:49', 'context': '【广州市】 快件已经到达 【广州中心】', 'location': ''}, {'time': '2019-09-28 23:17:19', 'ftime': '2019-09-28 23:17:19', 'context': '【广州市】 快件离开 【广州新华】 已发往 【东莞中心】', 'location': ''}, {'time': '2019-09-28 22:43:00', 'ftime': '2019-09-28 22:43:00', 'context': '【广州市】 【广州新华】（020-22144488） 的 客户罗贵东（13724047709） 已揽收', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 11:18:53', 'ftime': '2019-09-29 11:18:53', 'context': '[四川成都分拨中心]从站点发出，本次转运目的地：四川乐山公司', 'location': '四川成都分拨中心'}, {'time': '2019-09-29 10:56:31', 'ftime': '2019-09-29 10:56:31', 'context': '[四川成都分拨中心]在分拨中心进行卸车扫描', 'location': '四川成都分拨中心'}, {'time': '2019-09-27 12:18:31', 'ftime': '2019-09-27 12:18:31', 'context': '[福建晋江分拨中心]进行装车扫描', 'location': '福建晋江分拨中心'}, {'time': '2019-09-27 10:12:31', 'ftime': '2019-09-27 10:12:31', 'context': '[福建晋江分拨中心]在分拨中心进行称重扫描', 'location': '福建晋江分拨中心'}, {'time': '2019-09-27 04:22:23', 'ftime': '2019-09-27 04:22:23', 'context': '[福建市场部台江服务部]进行下级地点扫描，发往：川中市内包', 'location': '福建市场部台江服务部'}, {'time': '2019-09-27 03:26:40', 'ftime': '2019-09-27 03:26:40', 'context': '[福建市场部台江服务部]进行揽件扫描', 'location': '福建市场部台江服务部'}]}</t>
         </is>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0.073309</v>
+        <v>0.07226100000000001</v>
       </c>
       <c r="J4" s="3" t="n">
         <v>200</v>
@@ -777,11 +777,11 @@
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I5" s="3" t="n">
-        <v>0.010468</v>
+        <v>0.009759</v>
       </c>
       <c r="J5" s="3" t="n">
         <v>200</v>
@@ -831,11 +831,11 @@
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 08:08:05', 'ftime': '2019-09-29 08:08:05', 'context': '【伊春市】 【伊春红旗分部】 的李师傅（13796488870） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': ''}, {'time': '2019-09-29 08:08:04', 'ftime': '2019-09-29 08:08:04', 'context': '【伊春市】 快件已经到达 【伊春红旗分部】', 'location': ''}, {'time': '2019-09-29 07:44:36', 'ftime': '2019-09-29 07:44:36', 'context': '【伊春市】 快件离开 【伊春】 已发往 【伊春红旗分部】', 'location': ''}, {'time': '2019-09-28 13:08:18', 'ftime': '2019-09-28 13:08:18', 'context': '【哈尔滨市】 快件离开 【哈尔滨中转】 已发往 【伊春】', 'location': ''}, {'time': '2019-09-28 11:48:57', 'ftime': '2019-09-28 11:48:57', 'context': '【哈尔滨市】 快件已经到达 【哈尔滨中转】', 'location': ''}, {'time': '2019-09-26 02:14:24', 'ftime': '2019-09-26 02:14:24', 'context': '【泉州市】 快件离开 【泉州中转部】 已发往 【哈尔滨中转】', 'location': ''}, {'time': '2019-09-26 02:07:20', 'ftime': '2019-09-26 02:07:20', 'context': '【泉州市】 快件已经到达 【泉州中转部】', 'location': ''}, {'time': '2019-09-25 23:35:00', 'ftime': '2019-09-25 23:35:00', 'context': '【厦门市】 快件离开 【厦门中转部】 已发往 【泉州中转部】', 'location': ''}, {'time': '2019-09-25 23:27:35', 'ftime': '2019-09-25 23:27:35', 'context': '【厦门市】 快件已经到达 【厦门中转部】', 'location': ''}, {'time': '2019-09-25 22:51:40', 'ftime': '2019-09-25 22:51:40', 'context': '【厦门市】 快件离开 【厦门湖里五部】 已发往 【哈尔滨中转】', 'location': ''}, {'time': '2019-09-25 22:07:59', 'ftime': '2019-09-25 22:07:59', 'context': '【厦门市】 快件已经到达 【厦门湖里五部】', 'location': ''}, {'time': '2019-09-25 17:03:59', 'ftime': '2019-09-25 17:03:59', 'context': '【厦门市】 【海沧东孚】（0592-6311262） 的 陈振峥（16605924220） 已揽收', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-07-26 10:26:00', 'ftime': '2019-07-26 10:26:00', 'context': '已签收，签收人类型：本人', 'location': None}, {'time': '2019-07-26 10:26:00', 'ftime': '2019-07-26 10:26:00', 'context': '派送中，派件员：邝单围，电话：17773547668', 'location': None}, {'time': '2019-07-26 09:32:00', 'ftime': '2019-07-26 09:32:00', 'context': '预派送，派件员：邝单围，电话：17773547998', 'location': None}, {'time': '2019-07-25 08:22:00', 'ftime': '2019-07-25 08:22:00', 'context': '货物已到达郴州宜章县营业部', 'location': None}, {'time': '2019-07-24 17:02:00', 'ftime': '2019-07-24 17:02:00', 'context': '货物已到达郴州运作部', 'location': None}, {'time': '2019-07-24 16:05:00', 'ftime': '2019-07-24 16:05:00', 'context': '运输中，离开【郴州汝城县营业部】，下一站【郴州运作部】', 'location': None}, {'time': '2019-07-23 17:05:00', 'ftime': '2019-07-23 17:05:00', 'context': '此单为转寄更改单！', 'location': None}, {'time': '2019-07-23 17:04:00', 'ftime': '2019-07-23 17:04:00', 'context': '7我司原因转寄其他地址', 'location': None}, {'time': '2019-07-23 17:04:00', 'ftime': '2019-07-23 17:04:00', 'context': '派送中，派件员：朱建波，电话：18673554345', 'location': None}, {'time': '2019-07-23 13:45:00', 'ftime': '2019-07-23 13:45:00', 'context': '预派送，派件员：宋齐德，电话：', 'location': None}, {'time': '2019-07-23 08:54:00', 'ftime': '2019-07-23 08:54:00', 'context': '货物已到达郴州汝城县营业部', 'location': None}, {'time': '2019-07-22 11:47:00', 'ftime': '2019-07-22 11:47:00', 'context': '运输中，离开【郴州运作部】，下一站【郴州汝城县营业部】', 'location': None}, {'time': '2019-07-22 05:46:00', 'ftime': '2019-07-22 05:46:00', 'context': '货物已到达郴州运作部', 'location': None}, {'time': '2019-07-22 00:15:00', 'ftime': '2019-07-22 00:15:00', 'context': '运输中，离开【长沙转运中心】，下一站【郴州运作部】', 'location': None}, {'time': '2019-07-21 19:34:00', 'ftime': '2019-07-21 19:34:00', 'context': '货物已到达长沙转运中心', 'location': None}, {'time': '2019-07-21 18:13:00', 'ftime': '2019-07-21 18:13:00', 'context': '运输中，离开【湘潭湘潭县营业部】，下一站【长沙转运中心】', 'location': None}, {'time': '2019-07-21 14:21:00', 'ftime': '2019-07-21 14:21:00', 'context': '您的订单已被收件员揽收，【湘潭湘潭县营业部,电话：17377835828】库存中', 'location': None}, {'time': '2019-07-21 14:21:00', 'ftime': '2019-07-21 14:21:00', 'context': '您的订单已被收件员揽收,【湘潭湘潭县营业部】库存中', 'location': None}]}</t>
         </is>
       </c>
       <c r="I6" s="3" t="n">
-        <v>0.07464700000000001</v>
+        <v>0.07313600000000001</v>
       </c>
       <c r="J6" s="3" t="n">
         <v>200</v>
@@ -883,11 +883,11 @@
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I7" s="3" t="n">
-        <v>0.011263</v>
+        <v>0.009526</v>
       </c>
       <c r="J7" s="3" t="n">
         <v>200</v>
@@ -937,11 +937,11 @@
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 06:10:16', 'ftime': '2019-09-29 06:10:16', 'context': '【钦州市】 快件离开 【钦州】 已发往 【钦州犀牛脚镇】', 'location': ''}, {'time': '2019-09-28 12:31:36', 'ftime': '2019-09-28 12:31:36', 'context': '【钦州市】 快件已经到达 【钦州】', 'location': ''}, {'time': '2019-09-28 06:12:35', 'ftime': '2019-09-28 06:12:35', 'context': '【南宁市】 快件离开 【南宁中转】 已发往 【钦州】', 'location': ''}, {'time': '2019-09-28 04:02:37', 'ftime': '2019-09-28 04:02:37', 'context': '【南宁市】 快件已经到达 【南宁中转】', 'location': ''}, {'time': '2019-09-26 17:41:02', 'ftime': '2019-09-26 17:41:02', 'context': '【西安市】 快件离开 【西安中转】 已发往 【南宁中转】', 'location': ''}, {'time': '2019-09-26 16:56:10', 'ftime': '2019-09-26 16:56:10', 'context': '【西安市】 快件已经到达 【西安中转】', 'location': ''}, {'time': '2019-09-26 00:42:04', 'ftime': '2019-09-26 00:42:04', 'context': '【咸阳市】 快件离开 【武功中转】 已发往 【西安】', 'location': ''}, {'time': '2019-09-26 00:39:40', 'ftime': '2019-09-26 00:39:40', 'context': '【咸阳市】 快件已经到达 【武功中转】', 'location': ''}, {'time': '2019-09-25 20:45:04', 'ftime': '2019-09-25 20:45:04', 'context': '【咸阳市】 快件离开 【咸阳】 已发往 【西安中转】', 'location': ''}, {'time': '2019-09-25 19:54:04', 'ftime': '2019-09-25 19:54:04', 'context': '【咸阳市】 【咸阳】（029-87962368） 的 咸阳俏丫头（15229809606） 已揽收', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-22 19:09:05', 'ftime': '2019-09-22 19:09:05', 'context': '【清远市】 快件已在 【连州连南县】 签收, 签收人: 同事/同学/前台/门卫, 如有疑问请电联:19820351237 / 0763-8662225, 您的快递已经妥投。风里来雨里去, 只为客官您满意。上有老下有小, 赏个好评好不好？【请在评价快递员处帮忙点亮五颗星星哦~】', 'location': ''}, {'time': '2019-09-22 10:44:32', 'ftime': '2019-09-22 10:44:32', 'context': '【清远市】 【连州连南县】 的连南曾文锋（19820351237） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': ''}, {'time': '2019-09-22 10:44:31', 'ftime': '2019-09-22 10:44:31', 'context': '【清远市】 快件已经到达 【连州连南县】', 'location': ''}, {'time': '2019-09-22 08:00:42', 'ftime': '2019-09-22 08:00:42', 'context': '【清远市】 快件离开 【连州】 已发往 【连州连南县】', 'location': ''}, {'time': '2019-09-22 08:00:37', 'ftime': '2019-09-22 08:00:37', 'context': '【清远市】 快件已经到达 【连州】', 'location': ''}, {'time': '2019-09-22 01:00:46', 'ftime': '2019-09-22 01:00:46', 'context': '【广州市】 快件离开 【广州中心】 已发往 【连州】', 'location': ''}, {'time': '2019-09-22 00:31:35', 'ftime': '2019-09-22 00:31:35', 'context': '【广州市】 快件已经到达 【广州中心】', 'location': ''}, {'time': '2019-09-20 23:05:27', 'ftime': '2019-09-20 23:05:27', 'context': '【临沂市】 快件离开 【临沂中转部】 已发往 【广州中心】', 'location': ''}, {'time': '2019-09-20 22:36:38', 'ftime': '2019-09-20 22:36:38', 'context': '【临沂市】 快件已经到达 【临沂中转部】', 'location': ''}, {'time': '2019-09-20 19:27:39', 'ftime': '2019-09-20 19:27:39', 'context': '【临沂市】 快件离开 【临沂北城一部】 已发往 【广州中心】', 'location': ''}, {'time': '2019-09-20 17:47:25', 'ftime': '2019-09-20 17:47:25', 'context': '【临沂市】 快件离开 【临沂北城三部】 已发往 【临沂北城一部】', 'location': ''}, {'time': '2019-09-20 15:47:21', 'ftime': '2019-09-20 15:47:21', 'context': '【临沂市】 【临沂北城三部】（0539-7827711） 的 于师傅13953906043（13953906043） 已揽收', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I8" s="3" t="n">
-        <v>0.073032</v>
+        <v>0.07330100000000001</v>
       </c>
       <c r="J8" s="3" t="n">
         <v>200</v>
@@ -989,11 +989,11 @@
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I9" s="3" t="n">
-        <v>0.010187</v>
+        <v>0.010102</v>
       </c>
       <c r="J9" s="3" t="n">
         <v>200</v>
@@ -1043,11 +1043,11 @@
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-07-22 15:20:00', 'ftime': '2019-07-22 15:20:00', 'context': '[Sant Joan Despi]发货已送达住宅', 'location': 'Sant Joan Despi'}, {'time': '2019-07-22 08:54:05', 'ftime': '2019-07-22 08:54:05', 'context': '[Barcelona]货件正在派送中。', 'location': 'Barcelona'}, {'time': '2019-07-22 06:02:40', 'ftime': '2019-07-22 06:02:40', 'context': '[Barcelona]货件已到达距离派件地址最近的站点', 'location': 'Barcelona'}, {'time': '2019-07-22 06:02:40', 'ftime': '2019-07-22 06:02:40', 'context': '[Barcelona]货物正在 TNT 站点操作。', 'location': 'Barcelona'}, {'time': '2019-07-19 23:01:00', 'ftime': '2019-07-19 23:01:00', 'context': '[Madrid]货物运输中', 'location': 'Madrid'}, {'time': '2019-07-19 21:33:46', 'ftime': '2019-07-19 21:33:46', 'context': '[Madrid]货物运输中', 'location': 'Madrid'}, {'time': '2019-07-19 21:33:17', 'ftime': '2019-07-19 21:33:17', 'context': '[Madrid]货物正在 TNT 站点操作。', 'location': 'Madrid'}, {'time': '2019-07-19 20:14:36', 'ftime': '2019-07-19 20:14:36', 'context': '[Madrid]货件已由首选 TNT 站点接收。', 'location': 'Madrid'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-27 12:37:25', 'ftime': '2019-09-27 12:37:25', 'context': '订单已再投，再投原因：【要求拒收】，下一次预计派送时间 2019-09-28 12:37:25', 'location': ''}, {'time': '2019-09-27 12:33:22', 'ftime': '2019-09-27 12:33:22', 'context': '配送员开始配送，请您准备收货，配送员，何腾飞，手机号，15639770023', 'location': ''}, {'time': '2019-09-26 10:55:13', 'ftime': '2019-09-26 10:55:13', 'context': '订单已再投，再投原因：【客户要求自提】，下一次预计派送时间 2019-09-26 21:00:00', 'location': ''}, {'time': '2019-09-26 08:08:16', 'ftime': '2019-09-26 08:08:16', 'context': '配送员开始配送，请您准备收货，配送员，何腾飞，手机号，15639770023', 'location': ''}, {'time': '2019-09-24 09:38:50', 'ftime': '2019-09-24 09:38:50', 'context': '订单已再投，再投原因：【无法联系客户】', 'location': ''}, {'time': '2019-09-24 08:10:09', 'ftime': '2019-09-24 08:10:09', 'context': '配送员开始配送，请您准备收货，配送员，李俊峰，手机号，13017666559', 'location': ''}, {'time': '2019-09-24 06:50:19', 'ftime': '2019-09-24 06:50:19', 'context': '货物已分配，等待配送', 'location': ''}, {'time': '2019-09-24 01:05:56', 'ftime': '2019-09-24 01:05:56', 'context': '货物已完成分拣，离开【郑州分拨中心】', 'location': ''}, {'time': '2019-09-23 22:55:06', 'ftime': '2019-09-23 22:55:06', 'context': '货物已完成分拣，离开【郑州外单分拨中心】', 'location': ''}, {'time': '2019-09-23 17:55:12', 'ftime': '2019-09-23 17:55:12', 'context': '货物已交付京东物流', 'location': ''}, {'time': '2019-09-23 17:55:12', 'ftime': '2019-09-23 17:55:12', 'context': '配送员杨亮已经揽收完成', 'location': ''}, {'time': '2019-09-23 10:27:04', 'ftime': '2019-09-23 10:27:04', 'context': '揽收任务已分配给杨亮,配送员电话13700850903', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I10" s="3" t="n">
-        <v>0.076788</v>
+        <v>0.066853</v>
       </c>
       <c r="J10" s="3" t="n">
         <v>200</v>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I11" s="3" t="n">
-        <v>0.010081</v>
+        <v>0.010914</v>
       </c>
       <c r="J11" s="3" t="n">
         <v>200</v>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 19:24:51', 'ftime': '2019-09-28 19:24:51', 'context': '【福州转运中心】 已发出 下一站 【西安转运中心】', 'location': ''}, {'time': '2019-09-28 07:30:00', 'ftime': '2019-09-28 07:30:00', 'context': '【福州转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-28 05:36:36', 'ftime': '2019-09-28 05:36:36', 'context': '【福建省莆田市】 已发出 下一站 【福州转运中心】', 'location': ''}, {'time': '2019-09-28 05:29:25', 'ftime': '2019-09-28 05:29:25', 'context': '【福建省莆田市公司】 已打包', 'location': ''}, {'time': '2019-09-28 00:27:55', 'ftime': '2019-09-28 00:27:55', 'context': '【福建省莆田市公司】 已收件 取件人: 刘海彬 (18030346864)', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 08:40:09', 'ftime': '2019-09-29 08:40:09', 'context': '配送员开始配送，请您准备收货，配送员，田钦文，手机号，15191757785', 'location': ''}, {'time': '2019-09-28 19:52:11', 'ftime': '2019-09-28 19:52:11', 'context': '订单已再投，再投原因：【客户更改配送时间】，下一次预计派送时间 2019-09-29 21:00:00', 'location': ''}, {'time': '2019-09-28 08:25:00', 'ftime': '2019-09-28 08:25:00', 'context': '配送员开始配送，请您准备收货，配送员，田钦文，手机号，15191757785', 'location': ''}, {'time': '2019-09-26 17:47:39', 'ftime': '2019-09-26 17:47:39', 'context': '订单已再投，再投原因：【客户更改配送时间】，下一次预计派送时间 2019-09-27 21:00:00', 'location': ''}, {'time': '2019-09-26 09:57:23', 'ftime': '2019-09-26 09:57:23', 'context': '配送员开始配送，请您准备收货，配送员，田钦文，手机号，15191757785', 'location': ''}, {'time': '2019-09-26 09:25:47', 'ftime': '2019-09-26 09:25:47', 'context': '货物已分配，等待配送', 'location': ''}, {'time': '2019-09-26 09:25:46', 'ftime': '2019-09-26 09:25:46', 'context': '货物已到达【宝鸡陈仓营业部】', 'location': ''}, {'time': '2019-09-26 08:28:13', 'ftime': '2019-09-26 08:28:13', 'context': '货物已完成分拣，离开【宝鸡中转场】', 'location': ''}, {'time': '2019-09-26 02:30:57', 'ftime': '2019-09-26 02:30:57', 'context': '货物已完成分拣，离开【西安亚一分拣中心】', 'location': ''}, {'time': '2019-09-25 16:01:23', 'ftime': '2019-09-25 16:01:23', 'context': '货物已到达【西安亚一分拣中心】', 'location': ''}, {'time': '2019-09-24 20:57:24', 'ftime': '2019-09-24 20:57:24', 'context': '货物已完成分拣，离开【成都青白江分拣中心】', 'location': ''}, {'time': '2019-09-24 20:49:00', 'ftime': '2019-09-24 20:49:00', 'context': '货物已到达【成都青白江分拣中心】', 'location': ''}, {'time': '2019-09-24 17:15:15', 'ftime': '2019-09-24 17:15:15', 'context': '货物已交付京东物流', 'location': ''}, {'time': '2019-09-24 17:15:15', 'ftime': '2019-09-24 17:15:15', 'context': '配送员魏崇业已经揽收完成', 'location': ''}, {'time': '2019-09-24 16:08:36', 'ftime': '2019-09-24 16:08:36', 'context': '揽收任务已分配给魏崇业,配送员电话18828270998或67866557', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I12" s="3" t="n">
-        <v>0.072662</v>
+        <v>0.090306</v>
       </c>
       <c r="J12" s="3" t="n">
         <v>200</v>
@@ -1219,11 +1219,11 @@
       </c>
       <c r="H13" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I13" s="3" t="n">
-        <v>0.010717</v>
+        <v>0.010873</v>
       </c>
       <c r="J13" s="3" t="n">
         <v>200</v>
@@ -1282,11 +1282,11 @@
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 15:41:38', 'ftime': '2019-09-28 15:41:38', 'context': '[荆门市]快件到达 【荆门掇刀集散点】', 'location': '荆门市'}, {'time': '2019-09-28 12:38:00', 'ftime': '2019-09-28 12:38:00', 'context': '[武汉市]快件已发车', 'location': '武汉市'}, {'time': '2019-09-28 11:44:18', 'ftime': '2019-09-28 11:44:18', 'context': '[武汉市]快件在【武汉吴家山集散中心】已装车,准备发往 【荆门掇刀集散点】', 'location': '武汉市'}, {'time': '2019-09-28 10:19:55', 'ftime': '2019-09-28 10:19:55', 'context': '[武汉市]快件到达 【武汉吴家山集散中心】', 'location': '武汉市'}, {'time': '2019-09-27 18:36:36', 'ftime': '2019-09-27 18:36:36', 'context': '[东莞市]快件已发车', 'location': '东莞市'}, {'time': '2019-09-27 14:55:35', 'ftime': '2019-09-27 14:55:35', 'context': '[东莞市]快件在【东莞沙田集散中心】已装车,准备发往 【武汉吴家山集散中心】', 'location': '东莞市'}, {'time': '2019-09-27 14:31:14', 'ftime': '2019-09-27 14:31:14', 'context': '[东莞市]快件到达 【东莞沙田集散中心】', 'location': '东莞市'}, {'time': '2019-09-27 13:43:40', 'ftime': '2019-09-27 13:43:40', 'context': '[东莞市]快件已发车', 'location': '东莞市'}, {'time': '2019-09-27 13:38:39', 'ftime': '2019-09-27 13:38:39', 'context': '[东莞市]快件在【东莞虎门集散中心】已装车,准备发往 【东莞沙田集散中心】', 'location': '东莞市'}, {'time': '2019-09-27 13:14:55', 'ftime': '2019-09-27 13:14:55', 'context': '[东莞市]快件到达 【东莞虎门集散中心】', 'location': '东莞市'}, {'time': '2019-09-27 12:14:19', 'ftime': '2019-09-27 12:14:19', 'context': '[东莞市]快件已发车', 'location': '东莞市'}, {'time': '2019-09-27 12:08:04', 'ftime': '2019-09-27 12:08:04', 'context': '[东莞市]快件在【东莞东城瑞龙营业点】已装车,准备发往下一站', 'location': '东莞市'}, {'time': '2019-09-27 11:42:40', 'ftime': '2019-09-27 11:42:40', 'context': '[东莞市]顺丰速运 已收取快件', 'location': '东莞市'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-07-30 16:12:58', 'ftime': '2019-07-30 16:12:58', 'context': '已签收，签收人类型：本人', 'location': None}, {'time': '2019-07-30 16:05:34', 'ftime': '2019-07-30 16:05:34', 'context': '派送中', 'location': None}, {'time': '2019-07-30 08:55:02', 'ftime': '2019-07-30 08:55:02', 'context': '货物已到达天津滨海新区大港油田营业部', 'location': None}, {'time': '2019-07-30 07:20:22', 'ftime': '2019-07-30 07:20:22', 'context': '运输中，离开【天津枢纽中心】，下一站【天津滨海新区大港油田营业部】', 'location': None}, {'time': '2019-07-29 15:58:44', 'ftime': '2019-07-29 15:58:44', 'context': '货物已到达天津枢纽中心', 'location': None}, {'time': '2019-07-29 06:21:03', 'ftime': '2019-07-29 06:21:03', 'context': '运输中，离开【徐州转运中心】，下一站【天津枢纽中心】', 'location': None}, {'time': '2019-07-28 19:35:15', 'ftime': '2019-07-28 19:35:15', 'context': '货物已到达徐州转运中心', 'location': None}, {'time': '2019-07-28 18:57:04', 'ftime': '2019-07-28 18:57:04', 'context': '运输中，离开【徐州鼓楼区彭城快递分部】，下一站【徐州转运中心】', 'location': None}, {'time': '2019-07-28 18:25:38', 'ftime': '2019-07-28 18:25:38', 'context': '您的订单已被收件员揽收，【徐州鼓楼区彭城快递分部,电话：18326996120】库存中', 'location': None}, {'time': '2019-07-28 18:25:38', 'ftime': '2019-07-28 18:25:38', 'context': '您的订单已被收件员揽收,【徐州鼓楼区彭城快递分部】库存中', 'location': None}]}</t>
         </is>
       </c>
       <c r="I14" s="3" t="n">
-        <v>0.069574</v>
+        <v>0.071113</v>
       </c>
       <c r="J14" s="3" t="n">
         <v>200</v>
@@ -1334,11 +1334,11 @@
       </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I15" s="3" t="n">
-        <v>0.010571</v>
+        <v>0.008869</v>
       </c>
       <c r="J15" s="3" t="n">
         <v>200</v>
@@ -1388,11 +1388,11 @@
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-08 10:28:25', 'context': '查无结果', 'ftime': '2019-09-08 10:28:25'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-01 16:00:19', 'ftime': '2019-09-01 16:00:19', 'context': '客户 签收人: 申通 已签收 感谢使用圆通速递，期待再次为您服务', 'location': ''}, {'time': '2019-09-01 10:00:11', 'ftime': '2019-09-01 10:00:11', 'context': '【陕西省汉中市汉台区铺镇公司】 派件人: 纳彦芳 派件中 派件员电话17729066880', 'location': ''}, {'time': '2019-09-01 08:28:18', 'ftime': '2019-09-01 08:28:18', 'context': '【陕西省汉中市汉台区铺镇公司】 已收入', 'location': ''}, {'time': '2019-08-31 15:55:28', 'ftime': '2019-08-31 15:55:28', 'context': '【陕西省汉中市】 已发出 下一站 【陕西省汉中市汉台区铺镇公司】', 'location': ''}, {'time': '2019-08-31 15:37:40', 'ftime': '2019-08-31 15:37:40', 'context': '【陕西省汉中接驳点】 已发出 下一站 【陕西省汉中市公司】', 'location': ''}, {'time': '2019-08-31 01:14:55', 'ftime': '2019-08-31 01:14:55', 'context': '【西安转运中心】 已发出 下一站 【陕西省汉中接驳点公司】', 'location': ''}, {'time': '2019-08-31 01:10:33', 'ftime': '2019-08-31 01:10:33', 'context': '【西安转运中心】 已收入', 'location': ''}, {'time': '2019-08-30 03:09:06', 'ftime': '2019-08-30 03:09:06', 'context': '【北京转运中心】 已发出 下一站 【西安转运中心】', 'location': ''}, {'time': '2019-08-30 03:05:53', 'ftime': '2019-08-30 03:05:53', 'context': '【北京转运中心】 已收入', 'location': ''}, {'time': '2019-08-29 13:50:46', 'ftime': '2019-08-29 13:50:46', 'context': '【北京市朝阳区和平里】 已发出 下一站 【北京转运中心】', 'location': ''}, {'time': '2019-08-29 13:40:10', 'ftime': '2019-08-29 13:40:10', 'context': '【北京市朝阳区和平里公司】 已打包', 'location': ''}, {'time': '2019-08-29 10:17:37', 'ftime': '2019-08-29 10:17:37', 'context': '【北京市朝阳区和平里公司】 已收件', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I16" s="3" t="n">
-        <v>0.062989</v>
+        <v>0.074004</v>
       </c>
       <c r="J16" s="3" t="n">
         <v>200</v>
@@ -1440,11 +1440,11 @@
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I17" s="3" t="n">
-        <v>0.00912</v>
+        <v>0.014243</v>
       </c>
       <c r="J17" s="3" t="n">
         <v>200</v>
@@ -1503,11 +1503,11 @@
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-22 10:28:25', 'context': '查无结果', 'ftime': '2019-09-22 10:28:25'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-03 16:10:54', 'context': '查无结果', 'ftime': '2019-09-03 16:10:54'}]}</t>
         </is>
       </c>
       <c r="I18" s="3" t="n">
-        <v>0.069546</v>
+        <v>0.06897399999999999</v>
       </c>
       <c r="J18" s="3" t="n">
         <v>200</v>
@@ -1564,11 +1564,11 @@
       </c>
       <c r="H19" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I19" s="3" t="n">
-        <v>0.011126</v>
+        <v>0.010184</v>
       </c>
       <c r="J19" s="3" t="n">
         <v>200</v>

--- a/data_excel/接口测试用例_ (4).xlsx
+++ b/data_excel/接口测试用例_ (4).xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="4">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -40,34 +40,6 @@
       <sz val="11"/>
       <u val="single"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color indexed="81"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color indexed="81"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <color indexed="81"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <b val="1"/>
-      <color indexed="81"/>
-      <sz val="9"/>
     </font>
     <font>
       <name val="宋体"/>
@@ -127,10 +99,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -138,6 +110,20 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -486,10 +472,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
@@ -501,8 +487,9 @@
     <col width="22.5" customWidth="1" style="2" min="5" max="5"/>
     <col width="32.25" customWidth="1" style="2" min="6" max="6"/>
     <col width="19.75" customWidth="1" style="2" min="7" max="7"/>
-    <col width="28.75" customWidth="1" style="2" min="8" max="8"/>
-    <col width="14.375" customWidth="1" style="4" min="9" max="11"/>
+    <col width="11.5" customWidth="1" style="2" min="8" max="8"/>
+    <col width="28.75" customWidth="1" style="2" min="9" max="9"/>
+    <col width="14.375" customWidth="1" style="4" min="10" max="12"/>
   </cols>
   <sheetData>
     <row r="1" ht="29.25" customHeight="1" s="2">
@@ -543,20 +530,25 @@
       </c>
       <c r="H1" s="8" t="inlineStr">
         <is>
+          <t>用例级别</t>
+        </is>
+      </c>
+      <c r="I1" s="8" t="inlineStr">
+        <is>
           <t>响应报文</t>
         </is>
       </c>
-      <c r="I1" s="9" t="inlineStr">
+      <c r="J1" s="9" t="inlineStr">
         <is>
           <t>响应时间</t>
         </is>
       </c>
-      <c r="J1" s="9" t="inlineStr">
+      <c r="K1" s="9" t="inlineStr">
         <is>
           <t>状态码</t>
         </is>
       </c>
-      <c r="K1" s="9" t="inlineStr">
+      <c r="L1" s="9" t="inlineStr">
         <is>
           <t>测试结果</t>
         </is>
@@ -608,18 +600,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H2" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-28 14:09:44', 'ftime': '2019-09-28 14:09:44', 'context': '[邮政大石桥市石佛]在 营口市 已签收,他人代收：玉华,投递员:王威,电话:18141778163', 'location': '邮政大石桥市石佛'}, {'time': '2019-09-28 10:59:18', 'ftime': '2019-09-28 10:59:18', 'context': '到达【邮政大石桥市石佛】', 'location': '邮政大石桥市石佛'}, {'time': '2019-09-28 10:50:19', 'ftime': '2019-09-28 10:50:19', 'context': '【邮政大石桥市石佛】安排投递,投递员:王威,电话:18141778163', 'location': '邮政大石桥市石佛'}, {'time': '2019-09-28 08:58:36', 'ftime': '2019-09-28 08:58:36', 'context': '离开【大石桥营业部】,下一站【邮政大石桥市石佛】', 'location': '大石桥营业部'}, {'time': '2019-09-28 06:37:49', 'ftime': '2019-09-28 06:37:49', 'context': '到达【大石桥营业部】', 'location': '大石桥营业部'}, {'time': '2019-09-27 16:35:08', 'ftime': '2019-09-27 16:35:08', 'context': '营口市 【营口市快包大宗】已收件,揽投员:刘永强,电话:18141778244', 'location': '营口市快包大宗'}]}</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="n">
-        <v>0.07368</v>
+      <c r="H2" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-08 08:06:09', 'ftime': '2019-10-08 08:06:09', 'context': '离开【上海市中春路处理中心】,下一站【乌鲁木齐处理中心】', 'location': None}, {'time': '2019-10-07 19:22:04', 'ftime': '2019-10-07 19:22:04', 'context': '到达【上海市中春路处理中心】', 'location': None}, {'time': '2019-10-07 13:49:32', 'ftime': '2019-10-07 13:49:32', 'context': '[上海市]离开【嘉定安亭揽投部】,下一站【沪中春速】', 'location': None}, {'time': '2019-10-07 13:44:26', 'ftime': '2019-10-07 13:44:26', 'context': '[上海市]【嘉定安亭揽投部】已收件,揽投员:张玉兴,电话:18321100690', 'location': None}]}</t>
+        </is>
       </c>
       <c r="J2" s="3" t="n">
+        <v>0.092128</v>
+      </c>
+      <c r="K2" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -669,22 +666,15 @@
       <c r="G3" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H3" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>0.010248</v>
-      </c>
-      <c r="J3" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K3" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="n"/>
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="3" t="n"/>
+      <c r="L3" s="3" t="n"/>
     </row>
     <row r="4" ht="39.95" customHeight="1" s="2">
       <c r="A4" s="3" t="n">
@@ -723,18 +713,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H4" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 11:18:53', 'ftime': '2019-09-29 11:18:53', 'context': '[四川成都分拨中心]从站点发出，本次转运目的地：四川乐山公司', 'location': '四川成都分拨中心'}, {'time': '2019-09-29 10:56:31', 'ftime': '2019-09-29 10:56:31', 'context': '[四川成都分拨中心]在分拨中心进行卸车扫描', 'location': '四川成都分拨中心'}, {'time': '2019-09-27 12:18:31', 'ftime': '2019-09-27 12:18:31', 'context': '[福建晋江分拨中心]进行装车扫描', 'location': '福建晋江分拨中心'}, {'time': '2019-09-27 10:12:31', 'ftime': '2019-09-27 10:12:31', 'context': '[福建晋江分拨中心]在分拨中心进行称重扫描', 'location': '福建晋江分拨中心'}, {'time': '2019-09-27 04:22:23', 'ftime': '2019-09-27 04:22:23', 'context': '[福建市场部台江服务部]进行下级地点扫描，发往：川中市内包', 'location': '福建市场部台江服务部'}, {'time': '2019-09-27 03:26:40', 'ftime': '2019-09-27 03:26:40', 'context': '[福建市场部台江服务部]进行揽件扫描', 'location': '福建市场部台江服务部'}]}</t>
-        </is>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>0.07226100000000001</v>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-12 16:34:46', 'context': '查无结果', 'ftime': '2019-09-12 16:34:46'}]}</t>
+        </is>
       </c>
       <c r="J4" s="3" t="n">
+        <v>0.106115</v>
+      </c>
+      <c r="K4" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K4" s="3" t="inlineStr">
+      <c r="L4" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -775,22 +770,15 @@
       <c r="G5" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H5" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I5" s="3" t="n">
-        <v>0.009759</v>
-      </c>
-      <c r="J5" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K5" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="n"/>
+      <c r="J5" s="3" t="n"/>
+      <c r="K5" s="3" t="n"/>
+      <c r="L5" s="3" t="n"/>
     </row>
     <row r="6" ht="39.95" customHeight="1" s="2">
       <c r="A6" s="3" t="n">
@@ -829,18 +817,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H6" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-07-26 10:26:00', 'ftime': '2019-07-26 10:26:00', 'context': '已签收，签收人类型：本人', 'location': None}, {'time': '2019-07-26 10:26:00', 'ftime': '2019-07-26 10:26:00', 'context': '派送中，派件员：邝单围，电话：17773547668', 'location': None}, {'time': '2019-07-26 09:32:00', 'ftime': '2019-07-26 09:32:00', 'context': '预派送，派件员：邝单围，电话：17773547998', 'location': None}, {'time': '2019-07-25 08:22:00', 'ftime': '2019-07-25 08:22:00', 'context': '货物已到达郴州宜章县营业部', 'location': None}, {'time': '2019-07-24 17:02:00', 'ftime': '2019-07-24 17:02:00', 'context': '货物已到达郴州运作部', 'location': None}, {'time': '2019-07-24 16:05:00', 'ftime': '2019-07-24 16:05:00', 'context': '运输中，离开【郴州汝城县营业部】，下一站【郴州运作部】', 'location': None}, {'time': '2019-07-23 17:05:00', 'ftime': '2019-07-23 17:05:00', 'context': '此单为转寄更改单！', 'location': None}, {'time': '2019-07-23 17:04:00', 'ftime': '2019-07-23 17:04:00', 'context': '7我司原因转寄其他地址', 'location': None}, {'time': '2019-07-23 17:04:00', 'ftime': '2019-07-23 17:04:00', 'context': '派送中，派件员：朱建波，电话：18673554345', 'location': None}, {'time': '2019-07-23 13:45:00', 'ftime': '2019-07-23 13:45:00', 'context': '预派送，派件员：宋齐德，电话：', 'location': None}, {'time': '2019-07-23 08:54:00', 'ftime': '2019-07-23 08:54:00', 'context': '货物已到达郴州汝城县营业部', 'location': None}, {'time': '2019-07-22 11:47:00', 'ftime': '2019-07-22 11:47:00', 'context': '运输中，离开【郴州运作部】，下一站【郴州汝城县营业部】', 'location': None}, {'time': '2019-07-22 05:46:00', 'ftime': '2019-07-22 05:46:00', 'context': '货物已到达郴州运作部', 'location': None}, {'time': '2019-07-22 00:15:00', 'ftime': '2019-07-22 00:15:00', 'context': '运输中，离开【长沙转运中心】，下一站【郴州运作部】', 'location': None}, {'time': '2019-07-21 19:34:00', 'ftime': '2019-07-21 19:34:00', 'context': '货物已到达长沙转运中心', 'location': None}, {'time': '2019-07-21 18:13:00', 'ftime': '2019-07-21 18:13:00', 'context': '运输中，离开【湘潭湘潭县营业部】，下一站【长沙转运中心】', 'location': None}, {'time': '2019-07-21 14:21:00', 'ftime': '2019-07-21 14:21:00', 'context': '您的订单已被收件员揽收，【湘潭湘潭县营业部,电话：17377835828】库存中', 'location': None}, {'time': '2019-07-21 14:21:00', 'ftime': '2019-07-21 14:21:00', 'context': '您的订单已被收件员揽收,【湘潭湘潭县营业部】库存中', 'location': None}]}</t>
-        </is>
-      </c>
-      <c r="I6" s="3" t="n">
-        <v>0.07313600000000001</v>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-18 16:34:46', 'context': '查无结果', 'ftime': '2019-09-18 16:34:46'}]}</t>
+        </is>
       </c>
       <c r="J6" s="3" t="n">
+        <v>0.106243</v>
+      </c>
+      <c r="K6" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K6" s="3" t="inlineStr">
+      <c r="L6" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -881,22 +874,15 @@
       <c r="G7" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I7" s="3" t="n">
-        <v>0.009526</v>
-      </c>
-      <c r="J7" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K7" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="n"/>
+      <c r="J7" s="3" t="n"/>
+      <c r="K7" s="3" t="n"/>
+      <c r="L7" s="3" t="n"/>
     </row>
     <row r="8" ht="39.95" customHeight="1" s="2">
       <c r="A8" s="3" t="n">
@@ -935,18 +921,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-22 19:09:05', 'ftime': '2019-09-22 19:09:05', 'context': '【清远市】 快件已在 【连州连南县】 签收, 签收人: 同事/同学/前台/门卫, 如有疑问请电联:19820351237 / 0763-8662225, 您的快递已经妥投。风里来雨里去, 只为客官您满意。上有老下有小, 赏个好评好不好？【请在评价快递员处帮忙点亮五颗星星哦~】', 'location': ''}, {'time': '2019-09-22 10:44:32', 'ftime': '2019-09-22 10:44:32', 'context': '【清远市】 【连州连南县】 的连南曾文锋（19820351237） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': ''}, {'time': '2019-09-22 10:44:31', 'ftime': '2019-09-22 10:44:31', 'context': '【清远市】 快件已经到达 【连州连南县】', 'location': ''}, {'time': '2019-09-22 08:00:42', 'ftime': '2019-09-22 08:00:42', 'context': '【清远市】 快件离开 【连州】 已发往 【连州连南县】', 'location': ''}, {'time': '2019-09-22 08:00:37', 'ftime': '2019-09-22 08:00:37', 'context': '【清远市】 快件已经到达 【连州】', 'location': ''}, {'time': '2019-09-22 01:00:46', 'ftime': '2019-09-22 01:00:46', 'context': '【广州市】 快件离开 【广州中心】 已发往 【连州】', 'location': ''}, {'time': '2019-09-22 00:31:35', 'ftime': '2019-09-22 00:31:35', 'context': '【广州市】 快件已经到达 【广州中心】', 'location': ''}, {'time': '2019-09-20 23:05:27', 'ftime': '2019-09-20 23:05:27', 'context': '【临沂市】 快件离开 【临沂中转部】 已发往 【广州中心】', 'location': ''}, {'time': '2019-09-20 22:36:38', 'ftime': '2019-09-20 22:36:38', 'context': '【临沂市】 快件已经到达 【临沂中转部】', 'location': ''}, {'time': '2019-09-20 19:27:39', 'ftime': '2019-09-20 19:27:39', 'context': '【临沂市】 快件离开 【临沂北城一部】 已发往 【广州中心】', 'location': ''}, {'time': '2019-09-20 17:47:25', 'ftime': '2019-09-20 17:47:25', 'context': '【临沂市】 快件离开 【临沂北城三部】 已发往 【临沂北城一部】', 'location': ''}, {'time': '2019-09-20 15:47:21', 'ftime': '2019-09-20 15:47:21', 'context': '【临沂市】 【临沂北城三部】（0539-7827711） 的 于师傅13953906043（13953906043） 已揽收', 'location': ''}]}</t>
-        </is>
-      </c>
-      <c r="I8" s="3" t="n">
-        <v>0.07330100000000001</v>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-06 12:45:32', 'ftime': '2019-10-06 12:45:32', 'context': '【潍坊市】 快件已在 【潍坊潍城南】 签收, 签收人: 代理点, 如有疑问请电联:15266619371 / 18053608906, 您的快递已经妥投。风里来雨里去, 只为客官您满意。上有老下有小, 赏个好评好不好？【请在评价快递员处帮忙点亮五颗星星哦~】', 'location': ''}, {'time': '2019-10-06 07:58:47', 'ftime': '2019-10-06 07:58:47', 'context': '【潍坊市】 快件已到达 【潍坊潍城南】（18053608906、0536-8127417、0536-3030560）,业务员 4晋丰15266619371（15266619371） 正在第2次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': ''}, {'time': '2019-10-02 11:28:05', 'ftime': '2019-10-02 11:28:05', 'context': '【潍坊市】 快件离开 【潍坊中转部】 已发往 【潍坊潍城南】', 'location': ''}, {'time': '2019-10-02 11:22:16', 'ftime': '2019-10-02 11:22:16', 'context': '【潍坊市】 快件已经到达 【潍坊中转部】', 'location': ''}, {'time': '2019-10-02 03:41:26', 'ftime': '2019-10-02 03:41:26', 'context': '【济南市】 快件离开 【济南中转部】 已发往 【潍坊中转部】', 'location': ''}, {'time': '2019-10-01 23:04:26', 'ftime': '2019-10-01 23:04:26', 'context': '【济南市】 快件已经到达 【济南中转部】', 'location': ''}, {'time': '2019-10-01 00:09:05', 'ftime': '2019-10-01 00:09:05', 'context': '【哈尔滨市】 快件离开 【哈尔滨中转】 已发往 【潍坊中转部】', 'location': ''}, {'time': '2019-09-30 23:10:43', 'ftime': '2019-09-30 23:10:43', 'context': '【哈尔滨市】 快件已经到达 【哈尔滨中转】', 'location': ''}, {'time': '2019-09-30 18:19:08', 'ftime': '2019-09-30 18:19:08', 'context': '【哈尔滨市】 快件离开 【哈尔滨长江分部】 已发往 【哈尔滨中转】', 'location': ''}, {'time': '2019-09-30 18:18:09', 'ftime': '2019-09-30 18:18:09', 'context': '【哈尔滨市】 【哈尔滨长江分部】（0451-51788700） 的 01店里（15045399959） 已揽收', 'location': ''}]}</t>
+        </is>
       </c>
       <c r="J8" s="3" t="n">
+        <v>0.07760400000000001</v>
+      </c>
+      <c r="K8" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K8" s="3" t="inlineStr">
+      <c r="L8" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -987,22 +978,15 @@
       <c r="G9" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H9" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I9" s="3" t="n">
-        <v>0.010102</v>
-      </c>
-      <c r="J9" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K9" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H9" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="n"/>
+      <c r="J9" s="3" t="n"/>
+      <c r="K9" s="3" t="n"/>
+      <c r="L9" s="3" t="n"/>
     </row>
     <row r="10" ht="39.95" customHeight="1" s="2">
       <c r="A10" s="3" t="n">
@@ -1041,18 +1025,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-27 12:37:25', 'ftime': '2019-09-27 12:37:25', 'context': '订单已再投，再投原因：【要求拒收】，下一次预计派送时间 2019-09-28 12:37:25', 'location': ''}, {'time': '2019-09-27 12:33:22', 'ftime': '2019-09-27 12:33:22', 'context': '配送员开始配送，请您准备收货，配送员，何腾飞，手机号，15639770023', 'location': ''}, {'time': '2019-09-26 10:55:13', 'ftime': '2019-09-26 10:55:13', 'context': '订单已再投，再投原因：【客户要求自提】，下一次预计派送时间 2019-09-26 21:00:00', 'location': ''}, {'time': '2019-09-26 08:08:16', 'ftime': '2019-09-26 08:08:16', 'context': '配送员开始配送，请您准备收货，配送员，何腾飞，手机号，15639770023', 'location': ''}, {'time': '2019-09-24 09:38:50', 'ftime': '2019-09-24 09:38:50', 'context': '订单已再投，再投原因：【无法联系客户】', 'location': ''}, {'time': '2019-09-24 08:10:09', 'ftime': '2019-09-24 08:10:09', 'context': '配送员开始配送，请您准备收货，配送员，李俊峰，手机号，13017666559', 'location': ''}, {'time': '2019-09-24 06:50:19', 'ftime': '2019-09-24 06:50:19', 'context': '货物已分配，等待配送', 'location': ''}, {'time': '2019-09-24 01:05:56', 'ftime': '2019-09-24 01:05:56', 'context': '货物已完成分拣，离开【郑州分拨中心】', 'location': ''}, {'time': '2019-09-23 22:55:06', 'ftime': '2019-09-23 22:55:06', 'context': '货物已完成分拣，离开【郑州外单分拨中心】', 'location': ''}, {'time': '2019-09-23 17:55:12', 'ftime': '2019-09-23 17:55:12', 'context': '货物已交付京东物流', 'location': ''}, {'time': '2019-09-23 17:55:12', 'ftime': '2019-09-23 17:55:12', 'context': '配送员杨亮已经揽收完成', 'location': ''}, {'time': '2019-09-23 10:27:04', 'ftime': '2019-09-23 10:27:04', 'context': '揽收任务已分配给杨亮,配送员电话13700850903', 'location': ''}]}</t>
-        </is>
-      </c>
-      <c r="I10" s="3" t="n">
-        <v>0.066853</v>
+      <c r="H10" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-08 14:40:07', 'ftime': '2019-10-08 14:40:07', 'context': '【成都市】 快件已由【菜鸟的成都金山花园后大门店】代签收, 如有问题请电联（18111641281 / 95311）, 感谢您使用中通快递, 期待再次为您服务!', 'location': ''}, {'time': '2019-10-08 12:23:57', 'ftime': '2019-10-08 12:23:57', 'context': '【成都市】 【成都龙泉驿】 的B阳光城中通（18111641281） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': ''}, {'time': '2019-10-08 12:22:22', 'ftime': '2019-10-08 12:22:22', 'context': '【成都市】 快件已经到达 【成都龙泉驿】', 'location': ''}, {'time': '2019-10-08 10:55:29', 'ftime': '2019-10-08 10:55:29', 'context': '【成都市】 快件离开 【成都中转】 已发往 【成都龙泉驿】', 'location': ''}, {'time': '2019-10-08 10:42:59', 'ftime': '2019-10-08 10:42:59', 'context': '【成都市】 快件已经到达 【成都中转】', 'location': ''}, {'time': '2019-10-08 09:26:18', 'ftime': '2019-10-08 09:26:18', 'context': '【成都市】 快件离开 【成都西河镇】 已发往 【成都中转】', 'location': ''}, {'time': '2019-10-08 09:00:55', 'ftime': '2019-10-08 09:00:55', 'context': '【成都市】 【成都西河镇】（028-88411646、18980905568） 的 张玲玲（13689065953） 已揽收', 'location': ''}]}</t>
+        </is>
       </c>
       <c r="J10" s="3" t="n">
+        <v>0.078749</v>
+      </c>
+      <c r="K10" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K10" s="3" t="inlineStr">
+      <c r="L10" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1093,22 +1082,15 @@
       <c r="G11" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I11" s="3" t="n">
-        <v>0.010914</v>
-      </c>
-      <c r="J11" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K11" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H11" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="n"/>
+      <c r="J11" s="3" t="n"/>
+      <c r="K11" s="3" t="n"/>
+      <c r="L11" s="3" t="n"/>
     </row>
     <row r="12" ht="39.95" customHeight="1" s="2">
       <c r="A12" s="3" t="n">
@@ -1156,18 +1138,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H12" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 08:40:09', 'ftime': '2019-09-29 08:40:09', 'context': '配送员开始配送，请您准备收货，配送员，田钦文，手机号，15191757785', 'location': ''}, {'time': '2019-09-28 19:52:11', 'ftime': '2019-09-28 19:52:11', 'context': '订单已再投，再投原因：【客户更改配送时间】，下一次预计派送时间 2019-09-29 21:00:00', 'location': ''}, {'time': '2019-09-28 08:25:00', 'ftime': '2019-09-28 08:25:00', 'context': '配送员开始配送，请您准备收货，配送员，田钦文，手机号，15191757785', 'location': ''}, {'time': '2019-09-26 17:47:39', 'ftime': '2019-09-26 17:47:39', 'context': '订单已再投，再投原因：【客户更改配送时间】，下一次预计派送时间 2019-09-27 21:00:00', 'location': ''}, {'time': '2019-09-26 09:57:23', 'ftime': '2019-09-26 09:57:23', 'context': '配送员开始配送，请您准备收货，配送员，田钦文，手机号，15191757785', 'location': ''}, {'time': '2019-09-26 09:25:47', 'ftime': '2019-09-26 09:25:47', 'context': '货物已分配，等待配送', 'location': ''}, {'time': '2019-09-26 09:25:46', 'ftime': '2019-09-26 09:25:46', 'context': '货物已到达【宝鸡陈仓营业部】', 'location': ''}, {'time': '2019-09-26 08:28:13', 'ftime': '2019-09-26 08:28:13', 'context': '货物已完成分拣，离开【宝鸡中转场】', 'location': ''}, {'time': '2019-09-26 02:30:57', 'ftime': '2019-09-26 02:30:57', 'context': '货物已完成分拣，离开【西安亚一分拣中心】', 'location': ''}, {'time': '2019-09-25 16:01:23', 'ftime': '2019-09-25 16:01:23', 'context': '货物已到达【西安亚一分拣中心】', 'location': ''}, {'time': '2019-09-24 20:57:24', 'ftime': '2019-09-24 20:57:24', 'context': '货物已完成分拣，离开【成都青白江分拣中心】', 'location': ''}, {'time': '2019-09-24 20:49:00', 'ftime': '2019-09-24 20:49:00', 'context': '货物已到达【成都青白江分拣中心】', 'location': ''}, {'time': '2019-09-24 17:15:15', 'ftime': '2019-09-24 17:15:15', 'context': '货物已交付京东物流', 'location': ''}, {'time': '2019-09-24 17:15:15', 'ftime': '2019-09-24 17:15:15', 'context': '配送员魏崇业已经揽收完成', 'location': ''}, {'time': '2019-09-24 16:08:36', 'ftime': '2019-09-24 16:08:36', 'context': '揽收任务已分配给魏崇业,配送员电话18828270998或67866557', 'location': ''}]}</t>
-        </is>
-      </c>
-      <c r="I12" s="3" t="n">
-        <v>0.090306</v>
+      <c r="H12" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'B00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-08 15:00:16', 'ftime': '2019-10-08 15:00:16', 'context': '[南通市]【如东县寄递事业部大宗邮件收寄中心】已收件,揽投员:朱海东,电话:18251364664', 'location': None}]}</t>
+        </is>
       </c>
       <c r="J12" s="3" t="n">
+        <v>0.075986</v>
+      </c>
+      <c r="K12" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K12" s="3" t="inlineStr">
+      <c r="L12" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1217,22 +1204,15 @@
       <c r="G13" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H13" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I13" s="3" t="n">
-        <v>0.010873</v>
-      </c>
-      <c r="J13" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K13" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H13" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="n"/>
+      <c r="J13" s="3" t="n"/>
+      <c r="K13" s="3" t="n"/>
+      <c r="L13" s="3" t="n"/>
     </row>
     <row r="14" ht="39.95" customHeight="1" s="2">
       <c r="A14" s="3" t="n">
@@ -1280,18 +1260,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H14" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-07-30 16:12:58', 'ftime': '2019-07-30 16:12:58', 'context': '已签收，签收人类型：本人', 'location': None}, {'time': '2019-07-30 16:05:34', 'ftime': '2019-07-30 16:05:34', 'context': '派送中', 'location': None}, {'time': '2019-07-30 08:55:02', 'ftime': '2019-07-30 08:55:02', 'context': '货物已到达天津滨海新区大港油田营业部', 'location': None}, {'time': '2019-07-30 07:20:22', 'ftime': '2019-07-30 07:20:22', 'context': '运输中，离开【天津枢纽中心】，下一站【天津滨海新区大港油田营业部】', 'location': None}, {'time': '2019-07-29 15:58:44', 'ftime': '2019-07-29 15:58:44', 'context': '货物已到达天津枢纽中心', 'location': None}, {'time': '2019-07-29 06:21:03', 'ftime': '2019-07-29 06:21:03', 'context': '运输中，离开【徐州转运中心】，下一站【天津枢纽中心】', 'location': None}, {'time': '2019-07-28 19:35:15', 'ftime': '2019-07-28 19:35:15', 'context': '货物已到达徐州转运中心', 'location': None}, {'time': '2019-07-28 18:57:04', 'ftime': '2019-07-28 18:57:04', 'context': '运输中，离开【徐州鼓楼区彭城快递分部】，下一站【徐州转运中心】', 'location': None}, {'time': '2019-07-28 18:25:38', 'ftime': '2019-07-28 18:25:38', 'context': '您的订单已被收件员揽收，【徐州鼓楼区彭城快递分部,电话：18326996120】库存中', 'location': None}, {'time': '2019-07-28 18:25:38', 'ftime': '2019-07-28 18:25:38', 'context': '您的订单已被收件员揽收,【徐州鼓楼区彭城快递分部】库存中', 'location': None}]}</t>
-        </is>
-      </c>
-      <c r="I14" s="3" t="n">
-        <v>0.071113</v>
+      <c r="H14" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-07 22:01:31', 'ftime': '2019-10-07 22:01:31', 'context': '辽宁沈阳转运中心-已发往-陕西西安转运中心', 'location': None}, {'time': '2019-10-07 22:01:31', 'ftime': '2019-10-07 22:01:31', 'context': '辽宁沈阳转运中心-已进行装车扫描', 'location': None}, {'time': '2019-10-07 21:51:24', 'ftime': '2019-10-07 21:51:24', 'context': '已到达-辽宁沈阳转运中心', 'location': None}, {'time': '2019-10-07 19:34:18', 'ftime': '2019-10-07 19:34:18', 'context': '辽宁辽阳公司-已发往-辽宁沈阳转运中心', 'location': None}, {'time': '2019-10-07 19:34:18', 'ftime': '2019-10-07 19:34:18', 'context': '辽宁辽阳公司-已进行装车扫描', 'location': None}, {'time': '2019-10-07 19:34:04', 'ftime': '2019-10-07 19:34:04', 'context': '辽宁辽阳公司-王岩(18641932442)-已收件', 'location': None}, {'time': '2019-10-07 13:12:34', 'ftime': '2019-10-07 13:12:34', 'context': '辽宁辽阳公司-王岩(18641932442)-已收件', 'location': None}]}</t>
+        </is>
       </c>
       <c r="J14" s="3" t="n">
+        <v>0.07664</v>
+      </c>
+      <c r="K14" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K14" s="3" t="inlineStr">
+      <c r="L14" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1332,22 +1317,15 @@
       <c r="G15" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H15" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I15" s="3" t="n">
-        <v>0.008869</v>
-      </c>
-      <c r="J15" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K15" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H15" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="n"/>
+      <c r="J15" s="3" t="n"/>
+      <c r="K15" s="3" t="n"/>
+      <c r="L15" s="3" t="n"/>
     </row>
     <row r="16" ht="39.95" customHeight="1" s="2">
       <c r="A16" s="3" t="n">
@@ -1386,18 +1364,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H16" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-01 16:00:19', 'ftime': '2019-09-01 16:00:19', 'context': '客户 签收人: 申通 已签收 感谢使用圆通速递，期待再次为您服务', 'location': ''}, {'time': '2019-09-01 10:00:11', 'ftime': '2019-09-01 10:00:11', 'context': '【陕西省汉中市汉台区铺镇公司】 派件人: 纳彦芳 派件中 派件员电话17729066880', 'location': ''}, {'time': '2019-09-01 08:28:18', 'ftime': '2019-09-01 08:28:18', 'context': '【陕西省汉中市汉台区铺镇公司】 已收入', 'location': ''}, {'time': '2019-08-31 15:55:28', 'ftime': '2019-08-31 15:55:28', 'context': '【陕西省汉中市】 已发出 下一站 【陕西省汉中市汉台区铺镇公司】', 'location': ''}, {'time': '2019-08-31 15:37:40', 'ftime': '2019-08-31 15:37:40', 'context': '【陕西省汉中接驳点】 已发出 下一站 【陕西省汉中市公司】', 'location': ''}, {'time': '2019-08-31 01:14:55', 'ftime': '2019-08-31 01:14:55', 'context': '【西安转运中心】 已发出 下一站 【陕西省汉中接驳点公司】', 'location': ''}, {'time': '2019-08-31 01:10:33', 'ftime': '2019-08-31 01:10:33', 'context': '【西安转运中心】 已收入', 'location': ''}, {'time': '2019-08-30 03:09:06', 'ftime': '2019-08-30 03:09:06', 'context': '【北京转运中心】 已发出 下一站 【西安转运中心】', 'location': ''}, {'time': '2019-08-30 03:05:53', 'ftime': '2019-08-30 03:05:53', 'context': '【北京转运中心】 已收入', 'location': ''}, {'time': '2019-08-29 13:50:46', 'ftime': '2019-08-29 13:50:46', 'context': '【北京市朝阳区和平里】 已发出 下一站 【北京转运中心】', 'location': ''}, {'time': '2019-08-29 13:40:10', 'ftime': '2019-08-29 13:40:10', 'context': '【北京市朝阳区和平里公司】 已打包', 'location': ''}, {'time': '2019-08-29 10:17:37', 'ftime': '2019-08-29 10:17:37', 'context': '【北京市朝阳区和平里公司】 已收件', 'location': ''}]}</t>
-        </is>
-      </c>
-      <c r="I16" s="3" t="n">
-        <v>0.074004</v>
+      <c r="H16" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I16" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-25 16:34:47', 'context': '查无结果', 'ftime': '2019-09-25 16:34:47'}]}</t>
+        </is>
       </c>
       <c r="J16" s="3" t="n">
+        <v>0.066117</v>
+      </c>
+      <c r="K16" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K16" s="3" t="inlineStr">
+      <c r="L16" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1438,22 +1421,15 @@
       <c r="G17" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H17" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I17" s="3" t="n">
-        <v>0.014243</v>
-      </c>
-      <c r="J17" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K17" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H17" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I17" s="0" t="n"/>
+      <c r="J17" s="3" t="n"/>
+      <c r="K17" s="3" t="n"/>
+      <c r="L17" s="3" t="n"/>
     </row>
     <row r="18" ht="39.95" customHeight="1" s="2">
       <c r="A18" s="3" t="n">
@@ -1501,18 +1477,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H18" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-03 16:10:54', 'context': '查无结果', 'ftime': '2019-09-03 16:10:54'}]}</t>
-        </is>
-      </c>
-      <c r="I18" s="3" t="n">
-        <v>0.06897399999999999</v>
+      <c r="H18" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I18" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-10-05 14:41:19', 'ftime': '2019-10-05 14:41:19', 'context': '【桐庐小栈】快件已由岳阳市大桥河韵达超市代收，请及时取件。有问题请联系18073191330', 'location': None}, {'time': '2019-10-05 12:17:55', 'ftime': '2019-10-05 12:17:55', 'context': '湖南岳阳公司-翁仁刚(17872003090)-派件中', 'location': None}, {'time': '2019-10-05 12:01:09', 'ftime': '2019-10-05 12:01:09', 'context': '已到达-湖南岳阳公司', 'location': None}, {'time': '2019-10-05 11:35:26', 'ftime': '2019-10-05 11:35:26', 'context': '湖南岳阳公司-白石岭(15173031177,0730-3312472)-派件中', 'location': None}, {'time': '2019-10-05 07:07:11', 'ftime': '2019-10-05 07:07:11', 'context': '已到达-湖南岳阳公司', 'location': None}, {'time': '2019-10-04 22:15:18', 'ftime': '2019-10-04 22:15:18', 'context': '湖南长沙转运中心-已发往-湖南岳阳公司', 'location': None}, {'time': '2019-10-04 22:11:04', 'ftime': '2019-10-04 22:11:04', 'context': '已到达-湖南长沙转运中心', 'location': None}, {'time': '2019-10-04 15:17:20', 'ftime': '2019-10-04 15:17:20', 'context': '湖南望城公司-六十八区乾源国际(16607499937,0731-89520939)-已收件', 'location': None}, {'time': '2019-10-04 15:16:47', 'ftime': '2019-10-04 15:16:47', 'context': '湖南望城公司-已发往-湖南长沙转运中心', 'location': None}, {'time': '2019-10-04 15:16:47', 'ftime': '2019-10-04 15:16:47', 'context': '湖南望城公司-已进行装车扫描', 'location': None}]}</t>
+        </is>
       </c>
       <c r="J18" s="3" t="n">
+        <v>0.077249</v>
+      </c>
+      <c r="K18" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K18" s="3" t="inlineStr">
+      <c r="L18" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1562,26 +1543,32 @@
       <c r="G19" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H19" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I19" s="3" t="n">
-        <v>0.010184</v>
-      </c>
-      <c r="J19" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K19" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H19" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I19" s="0" t="n"/>
+      <c r="J19" s="3" t="n"/>
+      <c r="K19" s="3" t="n"/>
+      <c r="L19" s="3" t="n"/>
     </row>
     <row r="20" ht="39.95" customHeight="1" s="2"/>
     <row r="21" ht="39.95" customHeight="1" s="2"/>
   </sheetData>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="cellIs" priority="2" operator="equal" dxfId="1">
+      <formula>"K"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
+      <formula>"M"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation sqref="H2:H19" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"K,M"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId1"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="rId2"/>

--- a/data_excel/接口测试用例_ (4).xlsx
+++ b/data_excel/接口测试用例_ (4).xlsx
@@ -607,11 +607,11 @@
       </c>
       <c r="I2" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-08 08:06:09', 'ftime': '2019-10-08 08:06:09', 'context': '离开【上海市中春路处理中心】,下一站【乌鲁木齐处理中心】', 'location': None}, {'time': '2019-10-07 19:22:04', 'ftime': '2019-10-07 19:22:04', 'context': '到达【上海市中春路处理中心】', 'location': None}, {'time': '2019-10-07 13:49:32', 'ftime': '2019-10-07 13:49:32', 'context': '[上海市]离开【嘉定安亭揽投部】,下一站【沪中春速】', 'location': None}, {'time': '2019-10-07 13:44:26', 'ftime': '2019-10-07 13:44:26', 'context': '[上海市]【嘉定安亭揽投部】已收件,揽投员:张玉兴,电话:18321100690', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-11 16:54:51', 'context': '查无结果', 'ftime': '2019-09-11 16:54:51'}]}</t>
         </is>
       </c>
       <c r="J2" s="3" t="n">
-        <v>0.092128</v>
+        <v>0.06542000000000001</v>
       </c>
       <c r="K2" s="3" t="n">
         <v>200</v>
@@ -720,11 +720,11 @@
       </c>
       <c r="I4" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-12 16:34:46', 'context': '查无结果', 'ftime': '2019-09-12 16:34:46'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-27 16:54:51', 'context': '查无结果', 'ftime': '2019-09-27 16:54:51'}]}</t>
         </is>
       </c>
       <c r="J4" s="3" t="n">
-        <v>0.106115</v>
+        <v>0.065804</v>
       </c>
       <c r="K4" s="3" t="n">
         <v>200</v>
@@ -824,11 +824,11 @@
       </c>
       <c r="I6" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-18 16:34:46', 'context': '查无结果', 'ftime': '2019-09-18 16:34:46'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-06-19 13:35:37', 'ftime': '2019-06-19 13:35:37', 'context': '已签收，签收人类型：代收点签收', 'location': None}, {'time': '2019-06-19 13:35:32', 'ftime': '2019-06-19 13:35:32', 'context': '派送中', 'location': None}, {'time': '2019-06-19 11:28:12', 'ftime': '2019-06-19 11:28:12', 'context': '货物已到达广州番禺区平康路营业部', 'location': None}, {'time': '2019-06-19 11:07:01', 'ftime': '2019-06-19 11:07:01', 'context': '运输中，离开【番禺运作部】，下一站【广州番禺区平康路营业部】', 'location': None}, {'time': '2019-06-19 09:04:14', 'ftime': '2019-06-19 09:04:14', 'context': '货物已到达番禺运作部', 'location': None}, {'time': '2019-06-19 08:10:02', 'ftime': '2019-06-19 08:10:02', 'context': '运输中，离开【顺德枢纽中心】，下一站【番禺运作部】', 'location': None}, {'time': '2019-06-19 03:45:16', 'ftime': '2019-06-19 03:45:16', 'context': '货物已到达顺德枢纽中心', 'location': None}, {'time': '2019-06-18 00:47:55', 'ftime': '2019-06-18 00:47:55', 'context': '运输中，离开【徐州沙集转运场】，下一站【顺德枢纽中心】', 'location': None}, {'time': '2019-06-17 18:02:02', 'ftime': '2019-06-17 18:02:02', 'context': '货物已到达徐州沙集转运场', 'location': None}, {'time': '2019-06-17 17:51:54', 'ftime': '2019-06-17 17:51:54', 'context': '运输中，离开【徐州睢宁高作镇夏庙村快递分部】，下一站【徐州沙集转运场】', 'location': None}, {'time': '2019-06-17 15:22:12', 'ftime': '2019-06-17 15:22:12', 'context': '您的订单已被收件员揽收,【徐州睢宁高作镇夏庙村快递分部】库存中', 'location': None}]}</t>
         </is>
       </c>
       <c r="J6" s="3" t="n">
-        <v>0.106243</v>
+        <v>0.074221</v>
       </c>
       <c r="K6" s="3" t="n">
         <v>200</v>
@@ -928,11 +928,11 @@
       </c>
       <c r="I8" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-06 12:45:32', 'ftime': '2019-10-06 12:45:32', 'context': '【潍坊市】 快件已在 【潍坊潍城南】 签收, 签收人: 代理点, 如有疑问请电联:15266619371 / 18053608906, 您的快递已经妥投。风里来雨里去, 只为客官您满意。上有老下有小, 赏个好评好不好？【请在评价快递员处帮忙点亮五颗星星哦~】', 'location': ''}, {'time': '2019-10-06 07:58:47', 'ftime': '2019-10-06 07:58:47', 'context': '【潍坊市】 快件已到达 【潍坊潍城南】（18053608906、0536-8127417、0536-3030560）,业务员 4晋丰15266619371（15266619371） 正在第2次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': ''}, {'time': '2019-10-02 11:28:05', 'ftime': '2019-10-02 11:28:05', 'context': '【潍坊市】 快件离开 【潍坊中转部】 已发往 【潍坊潍城南】', 'location': ''}, {'time': '2019-10-02 11:22:16', 'ftime': '2019-10-02 11:22:16', 'context': '【潍坊市】 快件已经到达 【潍坊中转部】', 'location': ''}, {'time': '2019-10-02 03:41:26', 'ftime': '2019-10-02 03:41:26', 'context': '【济南市】 快件离开 【济南中转部】 已发往 【潍坊中转部】', 'location': ''}, {'time': '2019-10-01 23:04:26', 'ftime': '2019-10-01 23:04:26', 'context': '【济南市】 快件已经到达 【济南中转部】', 'location': ''}, {'time': '2019-10-01 00:09:05', 'ftime': '2019-10-01 00:09:05', 'context': '【哈尔滨市】 快件离开 【哈尔滨中转】 已发往 【潍坊中转部】', 'location': ''}, {'time': '2019-09-30 23:10:43', 'ftime': '2019-09-30 23:10:43', 'context': '【哈尔滨市】 快件已经到达 【哈尔滨中转】', 'location': ''}, {'time': '2019-09-30 18:19:08', 'ftime': '2019-09-30 18:19:08', 'context': '【哈尔滨市】 快件离开 【哈尔滨长江分部】 已发往 【哈尔滨中转】', 'location': ''}, {'time': '2019-09-30 18:18:09', 'ftime': '2019-09-30 18:18:09', 'context': '【哈尔滨市】 【哈尔滨长江分部】（0451-51788700） 的 01店里（15045399959） 已揽收', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-07 23:13:00', 'ftime': '2019-10-07 23:13:00', 'context': '[重庆-重庆公司]到达重庆分拨中心，完成卸车扫描:', 'location': '重庆-重庆公司'}, {'time': '2019-10-07 21:30:00', 'ftime': '2019-10-07 21:30:00', 'context': '[重庆-重庆公司]运输车辆抵达重庆:', 'location': '重庆-重庆公司'}, {'time': '2019-10-06 09:29:00', 'ftime': '2019-10-06 09:29:00', 'context': '[佛山-广州公司]完成装车扫描，离开佛山分拨中心，前往重庆:', 'location': '佛山-广州公司'}, {'time': '2019-10-05 20:16:00', 'ftime': '2019-10-05 20:16:00', 'context': '[佛山-广州公司]到达佛山:', 'location': '佛山-广州公司'}, {'time': '2019-10-05 17:01:00', 'ftime': '2019-10-05 17:01:00', 'context': '[广州-广州天河区桃园路分公司]在广州进行收件扫描:', 'location': '广州-广州天河区桃园路分公司'}]}</t>
         </is>
       </c>
       <c r="J8" s="3" t="n">
-        <v>0.07760400000000001</v>
+        <v>0.074752</v>
       </c>
       <c r="K8" s="3" t="n">
         <v>200</v>
@@ -1032,11 +1032,11 @@
       </c>
       <c r="I10" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-08 14:40:07', 'ftime': '2019-10-08 14:40:07', 'context': '【成都市】 快件已由【菜鸟的成都金山花园后大门店】代签收, 如有问题请电联（18111641281 / 95311）, 感谢您使用中通快递, 期待再次为您服务!', 'location': ''}, {'time': '2019-10-08 12:23:57', 'ftime': '2019-10-08 12:23:57', 'context': '【成都市】 【成都龙泉驿】 的B阳光城中通（18111641281） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': ''}, {'time': '2019-10-08 12:22:22', 'ftime': '2019-10-08 12:22:22', 'context': '【成都市】 快件已经到达 【成都龙泉驿】', 'location': ''}, {'time': '2019-10-08 10:55:29', 'ftime': '2019-10-08 10:55:29', 'context': '【成都市】 快件离开 【成都中转】 已发往 【成都龙泉驿】', 'location': ''}, {'time': '2019-10-08 10:42:59', 'ftime': '2019-10-08 10:42:59', 'context': '【成都市】 快件已经到达 【成都中转】', 'location': ''}, {'time': '2019-10-08 09:26:18', 'ftime': '2019-10-08 09:26:18', 'context': '【成都市】 快件离开 【成都西河镇】 已发往 【成都中转】', 'location': ''}, {'time': '2019-10-08 09:00:55', 'ftime': '2019-10-08 09:00:55', 'context': '【成都市】 【成都西河镇】（028-88411646、18980905568） 的 张玲玲（13689065953） 已揽收', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-07 19:28:10', 'ftime': '2019-09-07 19:28:10', 'context': '已签收，签收人类型：其他', 'location': None}, {'time': '2019-09-07 19:27:03', 'ftime': '2019-09-07 19:27:03', 'context': '派送中。‘166263’号段（广东广州号）为德邦快递专属号码，请放心接听', 'location': None}, {'time': '2019-09-07 09:11:19', 'ftime': '2019-09-07 09:11:19', 'context': '货物已到达赣州崇义县营业部', 'location': None}, {'time': '2019-09-07 08:12:48', 'ftime': '2019-09-07 08:12:48', 'context': '运输中，离开【赣州运营区】，下一站【赣州崇义县营业部】', 'location': None}, {'time': '2019-09-07 01:24:23', 'ftime': '2019-09-07 01:24:23', 'context': '货物已到达赣州运营区', 'location': None}, {'time': '2019-09-06 08:50:43', 'ftime': '2019-09-06 08:50:43', 'context': '运输中，离开【苏州枢纽中心】，下一站【赣州运营区】', 'location': None}, {'time': '2019-09-05 07:31:23', 'ftime': '2019-09-05 07:31:23', 'context': '货物已到达苏州枢纽中心', 'location': None}, {'time': '2019-09-05 05:10:14', 'ftime': '2019-09-05 05:10:14', 'context': '运输中，离开【嘉兴转运中心】，下一站【苏州枢纽中心】', 'location': None}, {'time': '2019-09-04 23:32:43', 'ftime': '2019-09-04 23:32:43', 'context': '货物已到达嘉兴转运中心', 'location': None}, {'time': '2019-09-04 22:34:28', 'ftime': '2019-09-04 22:34:28', 'context': '运输中，离开【嘉兴桐乡洲泉镇营业部】，下一站【嘉兴转运中心】', 'location': None}, {'time': '2019-09-04 21:20:42', 'ftime': '2019-09-04 21:20:42', 'context': '您的订单已被收件员揽收,【嘉兴桐乡洲泉镇营业部】库存中', 'location': None}]}</t>
         </is>
       </c>
       <c r="J10" s="3" t="n">
-        <v>0.078749</v>
+        <v>0.07261099999999999</v>
       </c>
       <c r="K10" s="3" t="n">
         <v>200</v>
@@ -1145,11 +1145,11 @@
       </c>
       <c r="I12" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'B00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-08 15:00:16', 'ftime': '2019-10-08 15:00:16', 'context': '[南通市]【如东县寄递事业部大宗邮件收寄中心】已收件,揽投员:朱海东,电话:18251364664', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-27 16:54:51', 'context': '查无结果', 'ftime': '2019-09-27 16:54:51'}]}</t>
         </is>
       </c>
       <c r="J12" s="3" t="n">
-        <v>0.075986</v>
+        <v>0.066229</v>
       </c>
       <c r="K12" s="3" t="n">
         <v>200</v>
@@ -1267,11 +1267,11 @@
       </c>
       <c r="I14" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-07 22:01:31', 'ftime': '2019-10-07 22:01:31', 'context': '辽宁沈阳转运中心-已发往-陕西西安转运中心', 'location': None}, {'time': '2019-10-07 22:01:31', 'ftime': '2019-10-07 22:01:31', 'context': '辽宁沈阳转运中心-已进行装车扫描', 'location': None}, {'time': '2019-10-07 21:51:24', 'ftime': '2019-10-07 21:51:24', 'context': '已到达-辽宁沈阳转运中心', 'location': None}, {'time': '2019-10-07 19:34:18', 'ftime': '2019-10-07 19:34:18', 'context': '辽宁辽阳公司-已发往-辽宁沈阳转运中心', 'location': None}, {'time': '2019-10-07 19:34:18', 'ftime': '2019-10-07 19:34:18', 'context': '辽宁辽阳公司-已进行装车扫描', 'location': None}, {'time': '2019-10-07 19:34:04', 'ftime': '2019-10-07 19:34:04', 'context': '辽宁辽阳公司-王岩(18641932442)-已收件', 'location': None}, {'time': '2019-10-07 13:12:34', 'ftime': '2019-10-07 13:12:34', 'context': '辽宁辽阳公司-王岩(18641932442)-已收件', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-08 08:56:59', 'ftime': '2019-10-08 08:56:59', 'context': '快件已到达【兰州(甘)转运分拨】,会尽快安排中转,请耐心等待', 'location': ''}, {'time': '2019-10-07 23:48:28', 'ftime': '2019-10-07 23:48:28', 'context': '快件已从【西安转运分拨】出发,下一站是【兰州(甘)转运分拨】,货物正在运输中', 'location': ''}, {'time': '2019-10-07 08:48:16', 'ftime': '2019-10-07 08:48:16', 'context': '快件已到达【西安转运分拨】,会尽快安排中转,请耐心等待', 'location': ''}, {'time': '2019-10-04 23:29:32', 'ftime': '2019-10-04 23:29:32', 'context': '快件已从【潮汕集散分拨】出发,下一站是【西安转运分拨】,货物正在运输中', 'location': ''}, {'time': '2019-10-03 22:21:21', 'ftime': '2019-10-03 22:21:21', 'context': '快件已到达【潮汕集散分拨】,会尽快安排中转,请耐心等待', 'location': ''}, {'time': '2019-10-03 20:20:53', 'ftime': '2019-10-03 20:20:53', 'context': '快件已从【金平中心营业部】出发,下一站是【潮汕集散分拨】,货物正在运输中', 'location': ''}, {'time': '2019-10-03 01:16:36', 'ftime': '2019-10-03 01:16:36', 'context': '快件已到达【金平中心营业部】,会尽快安排中转,请耐心等待', 'location': ''}, {'time': '2019-10-03 01:15:23', 'ftime': '2019-10-03 01:15:23', 'context': '快件已从【金平汕樟营业部E】出发,下一站是【金平中心营业部】,货物正在运输中', 'location': ''}, {'time': '2019-10-03 01:01:07', 'ftime': '2019-10-03 01:01:07', 'context': '快件已在【金平汕樟营业部E】15816556718被揽件,揽件员是【成植彬】', 'location': ''}]}</t>
         </is>
       </c>
       <c r="J14" s="3" t="n">
-        <v>0.07664</v>
+        <v>0.072353</v>
       </c>
       <c r="K14" s="3" t="n">
         <v>200</v>
@@ -1371,11 +1371,11 @@
       </c>
       <c r="I16" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-25 16:34:47', 'context': '查无结果', 'ftime': '2019-09-25 16:34:47'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-09 16:54:51', 'context': '查无结果', 'ftime': '2019-09-09 16:54:51'}]}</t>
         </is>
       </c>
       <c r="J16" s="3" t="n">
-        <v>0.066117</v>
+        <v>0.069117</v>
       </c>
       <c r="K16" s="3" t="n">
         <v>200</v>
@@ -1484,11 +1484,11 @@
       </c>
       <c r="I18" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-10-05 14:41:19', 'ftime': '2019-10-05 14:41:19', 'context': '【桐庐小栈】快件已由岳阳市大桥河韵达超市代收，请及时取件。有问题请联系18073191330', 'location': None}, {'time': '2019-10-05 12:17:55', 'ftime': '2019-10-05 12:17:55', 'context': '湖南岳阳公司-翁仁刚(17872003090)-派件中', 'location': None}, {'time': '2019-10-05 12:01:09', 'ftime': '2019-10-05 12:01:09', 'context': '已到达-湖南岳阳公司', 'location': None}, {'time': '2019-10-05 11:35:26', 'ftime': '2019-10-05 11:35:26', 'context': '湖南岳阳公司-白石岭(15173031177,0730-3312472)-派件中', 'location': None}, {'time': '2019-10-05 07:07:11', 'ftime': '2019-10-05 07:07:11', 'context': '已到达-湖南岳阳公司', 'location': None}, {'time': '2019-10-04 22:15:18', 'ftime': '2019-10-04 22:15:18', 'context': '湖南长沙转运中心-已发往-湖南岳阳公司', 'location': None}, {'time': '2019-10-04 22:11:04', 'ftime': '2019-10-04 22:11:04', 'context': '已到达-湖南长沙转运中心', 'location': None}, {'time': '2019-10-04 15:17:20', 'ftime': '2019-10-04 15:17:20', 'context': '湖南望城公司-六十八区乾源国际(16607499937,0731-89520939)-已收件', 'location': None}, {'time': '2019-10-04 15:16:47', 'ftime': '2019-10-04 15:16:47', 'context': '湖南望城公司-已发往-湖南长沙转运中心', 'location': None}, {'time': '2019-10-04 15:16:47', 'ftime': '2019-10-04 15:16:47', 'context': '湖南望城公司-已进行装车扫描', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'C00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-08 00:17:37', 'ftime': '2019-10-08 00:17:37', 'context': '【长沙市】 快件离开 【长沙中转部】 已发往 【新乡中转】', 'location': None}, {'time': '2019-10-08 00:15:37', 'ftime': '2019-10-08 00:15:37', 'context': '【长沙市】 快件已经到达 【长沙中转部】', 'location': None}, {'time': '2019-10-07 20:10:20', 'ftime': '2019-10-07 20:10:20', 'context': '【岳阳市】 快件离开 【岳阳】 已发往 【新乡中转】', 'location': None}, {'time': '2019-10-07 15:08:51', 'ftime': '2019-10-07 15:08:51', 'context': '【岳阳市】 【岳阳】（13387308876、13357307036、0730-7806068） 的 郭镇分部（13762086127） 已揽收', 'location': None}]}</t>
         </is>
       </c>
       <c r="J18" s="3" t="n">
-        <v>0.077249</v>
+        <v>0.087767</v>
       </c>
       <c r="K18" s="3" t="n">
         <v>200</v>
